--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="444">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1348,6 +1348,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Hold</t>
   </si>
 </sst>
 </file>
@@ -1882,6 +1885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1918,7 +1922,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>269</v>
       </c>
@@ -1926,10 +1930,10 @@
         <v>270</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -1937,10 +1941,10 @@
         <v>131</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>134</v>
       </c>
@@ -1948,10 +1952,10 @@
         <v>135</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>138</v>
       </c>
@@ -1959,10 +1963,10 @@
         <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>142</v>
       </c>
@@ -1970,10 +1974,10 @@
         <v>143</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>148</v>
       </c>
@@ -1981,10 +1985,10 @@
         <v>149</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>144</v>
       </c>
@@ -1992,10 +1996,10 @@
         <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,7 +2043,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>154</v>
       </c>
@@ -2047,10 +2051,10 @@
         <v>155</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>158</v>
       </c>
@@ -2058,10 +2062,10 @@
         <v>159</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>132</v>
       </c>
@@ -2069,10 +2073,10 @@
         <v>133</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -2080,10 +2084,10 @@
         <v>137</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>140</v>
       </c>
@@ -2091,10 +2095,10 @@
         <v>141</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>163</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,7 +2175,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>170</v>
       </c>
@@ -2179,10 +2183,10 @@
         <v>171</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>172</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>173</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,7 +2208,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>267</v>
       </c>
@@ -2212,10 +2216,10 @@
         <v>268</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>303</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>304</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2303,7 +2307,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>271</v>
       </c>
@@ -2311,10 +2315,10 @@
         <v>272</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>273</v>
       </c>
@@ -2322,10 +2326,10 @@
         <v>274</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>275</v>
       </c>
@@ -2333,10 +2337,10 @@
         <v>276</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>348</v>
       </c>
@@ -2344,10 +2348,10 @@
         <v>349</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>326</v>
       </c>
@@ -2355,10 +2359,10 @@
         <v>327</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>277</v>
       </c>
@@ -2366,10 +2370,10 @@
         <v>278</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>262</v>
       </c>
@@ -2377,10 +2381,10 @@
         <v>263</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>328</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>329</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,7 +2406,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>352</v>
       </c>
@@ -2410,10 +2414,10 @@
         <v>353</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>354</v>
       </c>
@@ -2421,10 +2425,10 @@
         <v>355</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>350</v>
       </c>
@@ -2432,10 +2436,10 @@
         <v>351</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>357</v>
       </c>
@@ -2443,10 +2447,10 @@
         <v>353</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>356</v>
       </c>
@@ -2454,10 +2458,10 @@
         <v>355</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>358</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>351</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,7 +2483,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>342</v>
       </c>
@@ -2487,10 +2491,10 @@
         <v>343</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>187</v>
       </c>
@@ -2498,10 +2502,10 @@
         <v>188</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>189</v>
       </c>
@@ -2509,10 +2513,10 @@
         <v>190</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>279</v>
       </c>
@@ -2520,10 +2524,10 @@
         <v>280</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>281</v>
       </c>
@@ -2531,10 +2535,10 @@
         <v>282</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>191</v>
       </c>
@@ -2542,10 +2546,10 @@
         <v>192</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>193</v>
       </c>
@@ -2553,10 +2557,10 @@
         <v>194</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>380</v>
       </c>
@@ -2564,10 +2568,10 @@
         <v>381</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>359</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>360</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2611,7 +2615,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>196</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>197</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,7 +2637,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>283</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>284</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2677,7 +2681,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>361</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>362</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2787,7 +2791,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>205</v>
       </c>
@@ -2795,10 +2799,10 @@
         <v>206</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>285</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>286</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2831,7 +2835,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>307</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>308</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2853,7 +2857,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>363</v>
       </c>
@@ -2861,10 +2865,10 @@
         <v>364</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>287</v>
       </c>
@@ -2872,10 +2876,10 @@
         <v>288</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>372</v>
       </c>
@@ -2883,10 +2887,10 @@
         <v>373</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>374</v>
       </c>
@@ -2894,10 +2898,10 @@
         <v>375</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>330</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>331</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2919,7 +2923,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>289</v>
       </c>
@@ -2927,10 +2931,10 @@
         <v>290</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>291</v>
       </c>
@@ -2938,10 +2942,10 @@
         <v>292</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>365</v>
       </c>
@@ -2949,10 +2953,10 @@
         <v>366</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>367</v>
       </c>
@@ -2960,10 +2964,10 @@
         <v>366</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>368</v>
       </c>
@@ -2971,10 +2975,10 @@
         <v>369</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>370</v>
       </c>
@@ -2982,10 +2986,10 @@
         <v>371</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>256</v>
       </c>
@@ -2993,10 +2997,10 @@
         <v>257</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>258</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>257</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3018,7 +3022,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>210</v>
       </c>
@@ -3026,10 +3030,10 @@
         <v>211</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>212</v>
       </c>
@@ -3037,10 +3041,10 @@
         <v>213</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>253</v>
       </c>
@@ -3048,10 +3052,10 @@
         <v>254</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>255</v>
       </c>
@@ -3059,10 +3063,10 @@
         <v>254</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>259</v>
       </c>
@@ -3070,10 +3074,10 @@
         <v>260</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>261</v>
       </c>
@@ -3081,10 +3085,10 @@
         <v>260</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>301</v>
       </c>
@@ -3092,10 +3096,10 @@
         <v>302</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>299</v>
       </c>
@@ -3103,10 +3107,10 @@
         <v>300</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>305</v>
       </c>
@@ -3114,10 +3118,10 @@
         <v>306</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>319</v>
       </c>
@@ -3125,10 +3129,10 @@
         <v>320</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>346</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>347</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3293,7 +3297,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>293</v>
       </c>
@@ -3301,10 +3305,10 @@
         <v>294</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>295</v>
       </c>
@@ -3312,10 +3316,10 @@
         <v>296</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>378</v>
       </c>
@@ -3323,10 +3327,10 @@
         <v>379</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>332</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>333</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3370,7 +3374,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>240</v>
       </c>
@@ -3378,10 +3382,10 @@
         <v>241</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>242</v>
       </c>
@@ -3389,10 +3393,10 @@
         <v>243</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>324</v>
       </c>
@@ -3400,10 +3404,10 @@
         <v>325</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>322</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>323</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3425,7 +3429,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>264</v>
       </c>
@@ -3433,10 +3437,10 @@
         <v>265</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>266</v>
       </c>
@@ -3444,10 +3448,10 @@
         <v>265</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>334</v>
       </c>
@@ -3455,10 +3459,10 @@
         <v>335</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>249</v>
       </c>
@@ -3466,10 +3470,10 @@
         <v>250</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>336</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>337</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3491,7 +3495,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>297</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>298</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3510,10 +3514,10 @@
         <v>252</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>245</v>
       </c>
@@ -3521,10 +3525,10 @@
         <v>246</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>247</v>
       </c>
@@ -3532,10 +3536,10 @@
         <v>248</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>376</v>
       </c>
@@ -3543,10 +3547,18 @@
         <v>377</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C150">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Done"/>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -3632,9 +3644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3693,9 +3705,7 @@
       <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -14,12 +14,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="452">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1351,13 +1352,37 @@
   </si>
   <si>
     <t>Hold</t>
+  </si>
+  <si>
+    <t>Test.Case.009</t>
+  </si>
+  <si>
+    <t>Dashboard - Complete Test Case</t>
+  </si>
+  <si>
+    <t>Click Sign up link on header</t>
+  </si>
+  <si>
+    <t>link=Sign Up</t>
+  </si>
+  <si>
+    <t>#dbconnection</t>
+  </si>
+  <si>
+    <t>assets/sql/GetConfigElementKeyStatus.sql</t>
+  </si>
+  <si>
+    <t>Get ON/ OFF status for SSO</t>
+  </si>
+  <si>
+    <t>Run a select query on database and it will returns paramaters which are available in hashmap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,6 +1480,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1535,7 +1566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1580,6 +1611,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1885,12 +1919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1955,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>269</v>
       </c>
@@ -1933,7 +1966,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -1944,7 +1977,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>134</v>
       </c>
@@ -1955,7 +1988,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>138</v>
       </c>
@@ -1966,7 +1999,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>142</v>
       </c>
@@ -1977,7 +2010,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>148</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>144</v>
       </c>
@@ -1999,7 +2032,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -2043,7 +2076,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>154</v>
       </c>
@@ -2054,7 +2087,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>158</v>
       </c>
@@ -2065,7 +2098,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>132</v>
       </c>
@@ -2076,7 +2109,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -2087,7 +2120,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>140</v>
       </c>
@@ -2098,7 +2131,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -2175,7 +2208,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>170</v>
       </c>
@@ -2186,7 +2219,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>172</v>
       </c>
@@ -2208,7 +2241,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>267</v>
       </c>
@@ -2219,7 +2252,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>303</v>
       </c>
@@ -2307,7 +2340,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>271</v>
       </c>
@@ -2318,7 +2351,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>273</v>
       </c>
@@ -2329,7 +2362,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>275</v>
       </c>
@@ -2340,7 +2373,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>348</v>
       </c>
@@ -2351,7 +2384,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>326</v>
       </c>
@@ -2362,7 +2395,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>277</v>
       </c>
@@ -2373,7 +2406,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>262</v>
       </c>
@@ -2384,7 +2417,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>328</v>
       </c>
@@ -2406,7 +2439,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>352</v>
       </c>
@@ -2417,7 +2450,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>354</v>
       </c>
@@ -2428,7 +2461,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>350</v>
       </c>
@@ -2439,7 +2472,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>357</v>
       </c>
@@ -2450,7 +2483,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>356</v>
       </c>
@@ -2461,7 +2494,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>358</v>
       </c>
@@ -2483,7 +2516,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>342</v>
       </c>
@@ -2494,7 +2527,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>187</v>
       </c>
@@ -2505,7 +2538,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>189</v>
       </c>
@@ -2516,7 +2549,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>279</v>
       </c>
@@ -2527,7 +2560,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>281</v>
       </c>
@@ -2538,7 +2571,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>191</v>
       </c>
@@ -2549,7 +2582,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>193</v>
       </c>
@@ -2560,7 +2593,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>380</v>
       </c>
@@ -2571,7 +2604,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>359</v>
       </c>
@@ -2615,7 +2648,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>196</v>
       </c>
@@ -2637,7 +2670,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>283</v>
       </c>
@@ -2681,7 +2714,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>361</v>
       </c>
@@ -2791,7 +2824,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>205</v>
       </c>
@@ -2802,7 +2835,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>285</v>
       </c>
@@ -2835,7 +2868,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>307</v>
       </c>
@@ -2857,7 +2890,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>363</v>
       </c>
@@ -2868,7 +2901,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>287</v>
       </c>
@@ -2879,7 +2912,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>372</v>
       </c>
@@ -2890,7 +2923,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>374</v>
       </c>
@@ -2901,7 +2934,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>330</v>
       </c>
@@ -2923,7 +2956,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>289</v>
       </c>
@@ -2934,7 +2967,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>291</v>
       </c>
@@ -2945,7 +2978,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>365</v>
       </c>
@@ -2956,7 +2989,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>367</v>
       </c>
@@ -2967,7 +3000,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>368</v>
       </c>
@@ -2978,7 +3011,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>370</v>
       </c>
@@ -2989,7 +3022,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>256</v>
       </c>
@@ -3000,7 +3033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>258</v>
       </c>
@@ -3022,7 +3055,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>210</v>
       </c>
@@ -3033,7 +3066,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>212</v>
       </c>
@@ -3044,7 +3077,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>253</v>
       </c>
@@ -3055,7 +3088,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>255</v>
       </c>
@@ -3066,18 +3099,18 @@
         <v>443</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>261</v>
       </c>
@@ -3088,7 +3121,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>301</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>299</v>
       </c>
@@ -3110,7 +3143,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>305</v>
       </c>
@@ -3121,7 +3154,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>319</v>
       </c>
@@ -3132,7 +3165,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>346</v>
       </c>
@@ -3297,7 +3330,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>293</v>
       </c>
@@ -3308,7 +3341,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>295</v>
       </c>
@@ -3319,7 +3352,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>378</v>
       </c>
@@ -3330,7 +3363,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>332</v>
       </c>
@@ -3374,7 +3407,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>240</v>
       </c>
@@ -3385,7 +3418,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>242</v>
       </c>
@@ -3396,7 +3429,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>324</v>
       </c>
@@ -3407,7 +3440,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>322</v>
       </c>
@@ -3429,7 +3462,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>264</v>
       </c>
@@ -3440,7 +3473,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>266</v>
       </c>
@@ -3451,7 +3484,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>334</v>
       </c>
@@ -3462,7 +3495,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>249</v>
       </c>
@@ -3473,7 +3506,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>336</v>
       </c>
@@ -3495,7 +3528,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>297</v>
       </c>
@@ -3517,7 +3550,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>245</v>
       </c>
@@ -3528,7 +3561,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>247</v>
       </c>
@@ -3539,7 +3572,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>376</v>
       </c>
@@ -3551,14 +3584,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C150">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Done"/>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C150"/>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -3642,11 +3668,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5098,6 +5124,84 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C83" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C84" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -5113,8 +5217,9 @@
     <hyperlink ref="G71" r:id="rId11"/>
     <hyperlink ref="G72" r:id="rId12"/>
     <hyperlink ref="G73" r:id="rId13"/>
+    <hyperlink ref="G82" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -15,12 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="454">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1366,9 +1365,6 @@
     <t>link=Sign Up</t>
   </si>
   <si>
-    <t>#dbconnection</t>
-  </si>
-  <si>
     <t>assets/sql/GetConfigElementKeyStatus.sql</t>
   </si>
   <si>
@@ -1376,6 +1372,15 @@
   </si>
   <si>
     <t>Run a select query on database and it will returns paramaters which are available in hashmap</t>
+  </si>
+  <si>
+    <t>Test.Case.010</t>
+  </si>
+  <si>
+    <t>DB Query Test</t>
+  </si>
+  <si>
+    <t>/assets/sql/GetConfigElementKeyStatus.sql</t>
   </si>
 </sst>
 </file>
@@ -3104,7 +3109,7 @@
         <v>259</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>442</v>
@@ -3668,11 +3673,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5124,83 +5129,102 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>444</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>3</v>
+        <v>452</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>448</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="C81" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>413</v>
+        <v>9</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>394</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C83" s="1" t="s">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F84" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C84" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="F84" s="24" t="s">
+    <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C85" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="G84" s="24" t="s">
-        <v>449</v>
-      </c>
+      <c r="G85" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="I85" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5217,7 +5241,7 @@
     <hyperlink ref="G71" r:id="rId11"/>
     <hyperlink ref="G72" r:id="rId12"/>
     <hyperlink ref="G73" r:id="rId13"/>
-    <hyperlink ref="G82" r:id="rId14"/>
+    <hyperlink ref="G83" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Template" sheetId="20" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="471">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1381,6 +1384,57 @@
   </si>
   <si>
     <t>/assets/sql/GetConfigElementKeyStatus.sql</t>
+  </si>
+  <si>
+    <t>set Employer_SSO_Key_Value in a variable</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Employer_SSO_Key_Value</t>
+  </si>
+  <si>
+    <t>#KeyValue</t>
+  </si>
+  <si>
+    <t>set Employer_SSO_Enabled in a variable</t>
+  </si>
+  <si>
+    <t>Employer_SSO_Enabled</t>
+  </si>
+  <si>
+    <t>#ConfigKeyEnabled</t>
+  </si>
+  <si>
+    <t>set Employer_SSO_Disabled in a variable</t>
+  </si>
+  <si>
+    <t>Employer_SSO_Disabled</t>
+  </si>
+  <si>
+    <t>#ConfigKeyDisabled</t>
+  </si>
+  <si>
+    <t>set Employer_SSO_Status in a variable</t>
+  </si>
+  <si>
+    <t>Employer_SSO_Status</t>
+  </si>
+  <si>
+    <t>#ConfigKeyStatus</t>
+  </si>
+  <si>
+    <t>Test.Case.044</t>
+  </si>
+  <si>
+    <t>runJavaScript</t>
+  </si>
+  <si>
+    <t>Running JavaScript</t>
+  </si>
+  <si>
+    <t>if("http://ex1.phixqa02.hcinternal.net/register/individual/homePage".indexOf("/register") &gt;1) "skip"; else "No";</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1619,6 +1673,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1635,6 +1698,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="methods"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="$automationKeywords$"/>
+      <sheetName val="$plugin$"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1928,7 +2012,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3112,7 +3196,7 @@
         <v>450</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3673,11 +3757,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5149,82 +5233,195 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>3</v>
+        <v>420</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>470</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="C82" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>413</v>
+        <v>9</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>394</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="s">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="D85" s="23"/>
+      <c r="E85" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="F85" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C85" s="24" t="s">
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24" t="s">
+      <c r="D86" s="23"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G86" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="I85" s="9"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5241,9 +5438,21 @@
     <hyperlink ref="G71" r:id="rId11"/>
     <hyperlink ref="G72" r:id="rId12"/>
     <hyperlink ref="G73" r:id="rId13"/>
-    <hyperlink ref="G83" r:id="rId14"/>
+    <hyperlink ref="G84" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F87:F90 F81</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="478">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1425,9 +1426,6 @@
     <t>#ConfigKeyStatus</t>
   </si>
   <si>
-    <t>Test.Case.044</t>
-  </si>
-  <si>
     <t>runJavaScript</t>
   </si>
   <si>
@@ -1435,6 +1433,30 @@
   </si>
   <si>
     <t>if("http://ex1.phixqa02.hcinternal.net/register/individual/homePage".indexOf("/register") &gt;1) "skip"; else "No";</t>
+  </si>
+  <si>
+    <t>Test.Case.100</t>
+  </si>
+  <si>
+    <t>Test.Case.011</t>
+  </si>
+  <si>
+    <t>Switch Browser</t>
+  </si>
+  <si>
+    <t>Switch to Employer Portal</t>
+  </si>
+  <si>
+    <t>https://automation.phix-qa08.demo.hcinternal.net/individual</t>
+  </si>
+  <si>
+    <t>:: Employer Portal ::</t>
+  </si>
+  <si>
+    <t>Open URL 2</t>
+  </si>
+  <si>
+    <t>Open URL 1</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1670,12 +1692,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2010,9 +2026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3189,13 +3205,13 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="19" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3475,14 +3491,14 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>442</v>
+      <c r="C133" s="19" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3629,13 +3645,13 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="19" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3757,11 +3773,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5223,6 +5239,7 @@
       <c r="C80" s="24" t="s">
         <v>449</v>
       </c>
+      <c r="D80" s="23"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24" t="s">
         <v>259</v>
@@ -5235,35 +5252,37 @@
     </row>
     <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>420</v>
       </c>
       <c r="C81" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G81" s="25" t="s">
         <v>469</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C82" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="9" t="s">
         <v>0</v>
       </c>
@@ -5273,155 +5292,227 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="C83" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>394</v>
+      </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="C84" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23" t="s">
-        <v>446</v>
+    <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="24" t="s">
+        <v>473</v>
       </c>
       <c r="D85" s="23"/>
-      <c r="E85" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-    </row>
-    <row r="86" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H86" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-    </row>
-    <row r="88" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-    </row>
-    <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>463</v>
-      </c>
+      <c r="C89" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="23"/>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="H90" s="23"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D94" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E94" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F94" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G94" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5438,10 +5529,12 @@
     <hyperlink ref="G71" r:id="rId11"/>
     <hyperlink ref="G72" r:id="rId12"/>
     <hyperlink ref="G73" r:id="rId13"/>
-    <hyperlink ref="G84" r:id="rId14"/>
+    <hyperlink ref="G88" r:id="rId14"/>
+    <hyperlink ref="G83" r:id="rId15"/>
+    <hyperlink ref="G84" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5449,7 +5542,7 @@
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F87:F90 F81</xm:sqref>
+          <xm:sqref>F91:F94 F81</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="482">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1366,9 +1365,6 @@
     <t>Click Sign up link on header</t>
   </si>
   <si>
-    <t>link=Sign Up</t>
-  </si>
-  <si>
     <t>assets/sql/GetConfigElementKeyStatus.sql</t>
   </si>
   <si>
@@ -1457,6 +1453,21 @@
   </si>
   <si>
     <t>Open URL 1</t>
+  </si>
+  <si>
+    <t>pageUrl</t>
+  </si>
+  <si>
+    <t>AlreadyOnSignUpPage</t>
+  </si>
+  <si>
+    <t>if("#pageUrl".indexOf("/register") &gt;1) "skip"; else "No";</t>
+  </si>
+  <si>
+    <t>Determine if we are already on signup page. If yes, we should not click on Signup link.</t>
+  </si>
+  <si>
+    <t>Launch Employer portal</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1629,25 +1640,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1672,13 +1670,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1696,6 +1687,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2026,9 +2023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2050,13 +2047,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2336,13 +2333,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2369,13 +2366,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2391,24 +2388,24 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2435,13 +2432,13 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2721,13 +2718,13 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2787,35 +2784,35 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2831,13 +2828,13 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2886,13 +2883,13 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2919,13 +2916,13 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2952,24 +2949,24 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3150,13 +3147,13 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="18" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3205,13 +3202,13 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="C107" s="19" t="s">
+      <c r="B107" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3282,13 +3279,13 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3326,35 +3323,35 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="16" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3381,13 +3378,13 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3425,13 +3422,13 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3491,14 +3488,14 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>402</v>
+      <c r="C133" s="16" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3557,13 +3554,13 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3623,13 +3620,13 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3645,13 +3642,13 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3689,7 +3686,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C150"/>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -3773,18 +3769,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -4721,7 +4717,7 @@
       <c r="F51" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="24" t="s">
         <v>394</v>
       </c>
       <c r="H51" s="9" t="s">
@@ -4753,7 +4749,7 @@
         <v>392</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="14" t="s">
         <v>393</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -4770,10 +4766,10 @@
         <v>57</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="9">
@@ -4814,7 +4810,7 @@
       <c r="F56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="15" t="s">
         <v>399</v>
       </c>
       <c r="H56" s="9"/>
@@ -4881,7 +4877,7 @@
       <c r="E60" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="9">
@@ -4986,7 +4982,7 @@
       <c r="F66" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="15" t="s">
         <v>399</v>
       </c>
       <c r="H66" s="9"/>
@@ -4999,7 +4995,7 @@
         <v>425</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="19" t="s">
         <v>418</v>
       </c>
       <c r="F67" s="9" t="s">
@@ -5018,7 +5014,7 @@
         <v>416</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="19" t="s">
         <v>418</v>
       </c>
       <c r="F68" s="9" t="s">
@@ -5050,7 +5046,7 @@
         <v>420</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="23"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="9" t="s">
         <v>83</v>
       </c>
@@ -5073,7 +5069,7 @@
       <c r="F71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="15" t="s">
         <v>424</v>
       </c>
       <c r="H71" s="9"/>
@@ -5086,133 +5082,133 @@
         <v>428</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="15" t="s">
         <v>429</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23" t="s">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23" t="s">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23" t="s">
+      <c r="D74" s="20"/>
+      <c r="E74" s="20" t="s">
         <v>436</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="20">
         <v>1</v>
       </c>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23" t="s">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="20" t="s">
         <v>437</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23" t="s">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="H76" s="23"/>
+      <c r="H76" s="20"/>
       <c r="I76" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23" t="s">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="H77" s="23"/>
+      <c r="H77" s="20"/>
       <c r="I77" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23" t="s">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
@@ -5234,55 +5230,55 @@
         <v>444</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="24" t="s">
-        <v>448</v>
+      <c r="G80" s="21" t="s">
+        <v>447</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>469</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="9" t="s">
         <v>0</v>
       </c>
@@ -5295,15 +5291,15 @@
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
+      <c r="C83" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="15" t="s">
         <v>394</v>
       </c>
       <c r="H83" s="9"/>
@@ -5312,16 +5308,16 @@
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
       <c r="F84" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>474</v>
+      <c r="G84" s="15" t="s">
+        <v>473</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -5329,23 +5325,23 @@
     <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="C85" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G85" s="25" t="s">
-        <v>475</v>
+      <c r="G85" s="22" t="s">
+        <v>474</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>445</v>
@@ -5383,136 +5379,226 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="15" t="s">
         <v>394</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23" t="s">
+    <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="D89" s="23"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="F89" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24" t="s">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="G90" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="25" t="s">
+      <c r="D91" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="E91" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="F91" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="H91" s="20"/>
+      <c r="I91" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="F92" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G91" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-    </row>
-    <row r="92" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="E92" s="25" t="s">
+      <c r="G92" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="F93" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-    </row>
-    <row r="93" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="E93" s="25" t="s">
+      <c r="G93" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F94" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G93" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-    </row>
-    <row r="94" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="E94" s="25" t="s">
+      <c r="G94" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="F94" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G94" s="25" t="s">
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="F96" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="G96" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="D97" s="20"/>
+      <c r="E97" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5537,12 +5623,18 @@
   <pageSetup orientation="portrait" r:id="rId17"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F91:F94 F81</xm:sqref>
+          <xm:sqref>F91:F96 F81</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F97</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="524">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1468,6 +1468,132 @@
   </si>
   <si>
     <t>Launch Employer portal</t>
+  </si>
+  <si>
+    <t>Enter a unique userid</t>
+  </si>
+  <si>
+    <t>id=userId</t>
+  </si>
+  <si>
+    <t>#EmployerUserId</t>
+  </si>
+  <si>
+    <t>{testdatasheet=Registration}</t>
+  </si>
+  <si>
+    <t>Check mark box for userid same as email</t>
+  </si>
+  <si>
+    <t>id=sameByEmail</t>
+  </si>
+  <si>
+    <t>#UserIdSameAsEmail</t>
+  </si>
+  <si>
+    <t>Get userid to be used for login</t>
+  </si>
+  <si>
+    <t>EmployerUserId</t>
+  </si>
+  <si>
+    <t>#EmployerPassword</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>Select a random security question</t>
+  </si>
+  <si>
+    <t>selectByText</t>
+  </si>
+  <si>
+    <t>#SecurityQ1</t>
+  </si>
+  <si>
+    <t>Click on security question 1 dropdown</t>
+  </si>
+  <si>
+    <t>//span[@id="securityQuestion0-button"]</t>
+  </si>
+  <si>
+    <t>Select random security question 1</t>
+  </si>
+  <si>
+    <t>//ul[@id="securityQuestion0-menu"]/li[text()="#SecurityQ1"]</t>
+  </si>
+  <si>
+    <t>get selected security question</t>
+  </si>
+  <si>
+    <t>selected | SelectedSecurityQ1</t>
+  </si>
+  <si>
+    <t>Get selected security question 1</t>
+  </si>
+  <si>
+    <t>//span[@id="securityQuestion0-button"]/span[2]</t>
+  </si>
+  <si>
+    <t>SelectedSecurityQ1</t>
+  </si>
+  <si>
+    <t>Answer first security question</t>
+  </si>
+  <si>
+    <t>#SecurityA1</t>
+  </si>
+  <si>
+    <t>#SecurityQ2</t>
+  </si>
+  <si>
+    <t>Click on security question 2 dropdown</t>
+  </si>
+  <si>
+    <t>//span[@id="securityQuestion1-button"]</t>
+  </si>
+  <si>
+    <t>Select random security question 2</t>
+  </si>
+  <si>
+    <t>//ul[@id="securityQuestion1-menu"]/li[text()="#SecurityQ2"]</t>
+  </si>
+  <si>
+    <t>selected | SelectedSecurityQ2</t>
+  </si>
+  <si>
+    <t>Get selected security question 2</t>
+  </si>
+  <si>
+    <t>//span[@id="securityQuestion1-button"]/span[2]</t>
+  </si>
+  <si>
+    <t>SelectedSecurityQ2</t>
+  </si>
+  <si>
+    <t>Answer second security question</t>
+  </si>
+  <si>
+    <t>#SecurityA2</t>
+  </si>
+  <si>
+    <t>Click create account/continue button</t>
+  </si>
+  <si>
+    <t>//input[@value="Create Account"] | //input[@value="Continue"]</t>
+  </si>
+  <si>
+    <t>Wait for 2nd page of registration</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'headingText')][text()="Company Information"]</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>{#waitfor2page}</t>
   </si>
 </sst>
 </file>
@@ -2023,9 +2149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3769,11 +3895,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3785,7 +3911,9 @@
     <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5553,52 +5681,494 @@
     <row r="97" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="22" t="s">
         <v>446</v>
       </c>
       <c r="D97" s="20"/>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
+      <c r="C100" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I102" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I103" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I105" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I107" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>523</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5623,7 +6193,7 @@
   <pageSetup orientation="portrait" r:id="rId17"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
@@ -5636,6 +6206,12 @@
           </x14:formula1>
           <xm:sqref>F97</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F98:F116</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="519">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1479,39 +1479,15 @@
     <t>#EmployerUserId</t>
   </si>
   <si>
-    <t>{testdatasheet=Registration}</t>
-  </si>
-  <si>
-    <t>Check mark box for userid same as email</t>
-  </si>
-  <si>
-    <t>id=sameByEmail</t>
-  </si>
-  <si>
-    <t>#UserIdSameAsEmail</t>
-  </si>
-  <si>
-    <t>Get userid to be used for login</t>
-  </si>
-  <si>
     <t>EmployerUserId</t>
   </si>
   <si>
-    <t>#EmployerPassword</t>
-  </si>
-  <si>
     <t>Confirm password</t>
   </si>
   <si>
     <t>Select a random security question</t>
   </si>
   <si>
-    <t>selectByText</t>
-  </si>
-  <si>
-    <t>#SecurityQ1</t>
-  </si>
-  <si>
     <t>Click on security question 1 dropdown</t>
   </si>
   <si>
@@ -1593,14 +1569,23 @@
     <t>60</t>
   </si>
   <si>
-    <t>{#waitfor2page}</t>
+    <t>Get Random String</t>
+  </si>
+  <si>
+    <t>Qwerty@12</t>
+  </si>
+  <si>
+    <t>What is the first name of your favorite uncle ?</t>
+  </si>
+  <si>
+    <t>SecurityQ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1617,14 +1602,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1688,21 +1665,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1771,55 +1748,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1843,8 +1835,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="methods"/>
-      <sheetName val="Dashboard"/>
       <sheetName val="Sheet1"/>
       <sheetName val="$automationKeywords$"/>
       <sheetName val="$plugin$"/>
@@ -1853,8 +1843,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2149,1665 +2137,1665 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="16" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="7" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="7" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="16" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="16" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="16" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C87" s="7" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="7" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="C102" s="18" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C107" s="16" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="16" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C115" s="7" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116" s="7" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C117" s="7" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C118" s="16" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C119" s="16" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" s="16" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C123" s="16" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3824,7 +3812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3895,2280 +3885,2190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="123.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>30</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>1000</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>1</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>5</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="13">
         <v>1</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="13">
         <v>2</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="12" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="12" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="12" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="12" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="12" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="13">
         <v>5</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="13" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="13">
         <v>1</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="13" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="14" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="13">
         <v>18017</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9" t="s">
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="13">
         <v>18017</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9" t="s">
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="13"/>
+      <c r="E67" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="13">
         <v>30</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9" t="s">
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="13"/>
+      <c r="E68" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="9" t="s">
+      <c r="D70" s="13"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9" t="s">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9" t="s">
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="19" t="s">
+      <c r="D72" s="13"/>
+      <c r="E72" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20" t="s">
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20" t="s">
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20" t="s">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="11">
         <v>1</v>
       </c>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-    </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20" t="s">
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="H76" s="20"/>
-      <c r="I76" s="9" t="s">
+      <c r="H76" s="11"/>
+      <c r="I76" s="13" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="H77" s="20"/>
-      <c r="I77" s="9" t="s">
+      <c r="H77" s="11"/>
+      <c r="I77" s="13" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="22" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="9" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="21" t="s">
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="9" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="21" t="s">
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="9" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="21" t="s">
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="7" t="s">
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G85" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9" t="s">
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9" t="s">
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9" t="s">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20" t="s">
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21" t="s">
+      <c r="E90" s="27"/>
+      <c r="F90" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="G90" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="H90" s="20"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="22" t="s">
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F91" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20" t="s">
+      <c r="I91" s="12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="22" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-    </row>
-    <row r="93" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="22" t="s">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="F93" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G93" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-    </row>
-    <row r="94" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="22" t="s">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-    </row>
-    <row r="95" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="22" t="s">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22" t="s">
+      <c r="E95" s="26"/>
+      <c r="F95" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-    </row>
-    <row r="96" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20" t="s">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="F96" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-    </row>
-    <row r="97" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="22" t="s">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-    </row>
-    <row r="98" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="22" t="s">
+    </row>
+    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G98" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D99" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E99" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F99" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G99" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H99" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="I98" s="22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="22" t="s">
+      <c r="I99" s="26"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I100" s="26"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D101" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E101" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="H101" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I101" s="26"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="F99" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G99" s="22" t="s">
+      <c r="D102" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G102" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I102" s="26"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="H99" s="22" t="s">
+      <c r="D103" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="I99" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="22" t="s">
+      <c r="E103" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="F103" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E100" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F100" s="22" t="s">
+      <c r="H103" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I104" s="26"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I105" s="26"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G100" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="H100" s="22" t="s">
+      <c r="G106" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="I106" s="26"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D107" s="26" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D101" s="22" t="s">
+      <c r="E107" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="H107" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E101" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F101" s="22" t="s">
+      <c r="I107" s="26"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I108" s="26"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I109" s="26"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I110" s="26"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I111" s="26"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I112" s="26"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="H101" s="22" t="s">
+      <c r="G113" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="H113" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="I101" s="22" t="s">
+      <c r="I113" s="26"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="D102" s="22" t="s">
+      <c r="E114" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E102" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="H102" s="22" t="s">
+      <c r="H114" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="I102" s="22" t="s">
+      <c r="I114" s="26"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D115" s="26" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="D103" s="22" t="s">
+      <c r="E115" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="H115" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E103" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="H103" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H104" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I104" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H105" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I105" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="F106" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="H106" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="H107" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="H108" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="H109" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I109" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H110" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H111" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="H112" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I112" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="H113" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I113" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="H114" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I114" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I115" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="F116" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>523</v>
-      </c>
+      <c r="I115" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6188,29 +6088,19 @@
     <hyperlink ref="G88" r:id="rId14"/>
     <hyperlink ref="G83" r:id="rId15"/>
     <hyperlink ref="G84" r:id="rId16"/>
+    <hyperlink ref="G100" r:id="rId17"/>
+    <hyperlink ref="G101" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F91:F96 F81</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F97</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F98:F116</xm:sqref>
+          <xm:sqref>F81 F103:F115 F91:F101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="523">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1579,6 +1579,18 @@
   </si>
   <si>
     <t>SecurityQ1</t>
+  </si>
+  <si>
+    <t>Test.Case.012</t>
+  </si>
+  <si>
+    <t>Read Test Data</t>
+  </si>
+  <si>
+    <t>Read Test Data from Excel</t>
+  </si>
+  <si>
+    <t>{testdatasheet=EmployeeInfo}</t>
   </si>
 </sst>
 </file>
@@ -1835,14 +1847,78 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Speciality Benefits"/>
+      <sheetName val="Manage Users"/>
+      <sheetName val="WIC_Group_Lead"/>
+      <sheetName val="WIC_methods_Sonal"/>
+      <sheetName val="methods"/>
+      <sheetName val="WIC_Group_Setup"/>
+      <sheetName val="WIC Enrollment Setup"/>
+      <sheetName val="TestRegistration"/>
+      <sheetName val="Sign UpSign In"/>
+      <sheetName val="Sanity"/>
+      <sheetName val="Review Proposals"/>
+      <sheetName val="Renewal"/>
+      <sheetName val="Rating_Statewise"/>
+      <sheetName val="Rating - Composite"/>
+      <sheetName val="Rating - Community"/>
+      <sheetName val="Rating - Age Banded"/>
+      <sheetName val="Plan Listing"/>
+      <sheetName val="Payroll Report"/>
+      <sheetName val="Manage Packages"/>
+      <sheetName val="Manage Enrollments"/>
+      <sheetName val="Manage Employees"/>
+      <sheetName val="Manage Classes"/>
+      <sheetName val="LSC"/>
+      <sheetName val="ITL"/>
+      <sheetName val="Flex"/>
+      <sheetName val="EndToEnd Flows"/>
+      <sheetName val="Define Settings"/>
+      <sheetName val="Define Contribution"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Anonymous Flow"/>
+      <sheetName val="Ancillary"/>
+      <sheetName val="Account Information"/>
       <sheetName val="Sheet1"/>
       <sheetName val="$automationKeywords$"/>
       <sheetName val="$plugin$"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3885,11 +3961,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3902,7 +3978,7 @@
     <col min="6" max="6" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="123.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5457,39 +5533,45 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="13">
+        <v>1</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B87" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C87" s="24" t="s">
         <v>7</v>
-      </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24" t="s">
-        <v>9</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G87" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>3</v>
+      </c>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
     </row>
@@ -5497,228 +5579,220 @@
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24" t="s">
-        <v>481</v>
+        <v>9</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G88" s="25" t="s">
-        <v>394</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
-      <c r="C89" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="C89" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
-      <c r="C90" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="I90" s="24"/>
+      <c r="C90" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
-      <c r="C91" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>441</v>
-      </c>
+      <c r="C91" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="I91" s="24"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="26" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D92" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D93" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F93" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F94" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="26" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D95" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E95" s="26"/>
+      <c r="E95" s="26" t="s">
+        <v>464</v>
+      </c>
       <c r="F95" s="26" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>478</v>
-      </c>
+      <c r="C96" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E96" s="26"/>
       <c r="F96" s="26" t="s">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
-      <c r="C97" s="26" t="s">
-        <v>446</v>
+      <c r="C97" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="26" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G98" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="H99" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I99" s="26"/>
-    </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G99" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="26" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="D100" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="F100" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="29" t="s">
-        <v>516</v>
+      <c r="G100" s="26" t="s">
+        <v>484</v>
       </c>
       <c r="H100" s="26" t="s">
         <v>454</v>
@@ -5729,13 +5803,13 @@
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="26" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="D101" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F101" s="26" t="s">
         <v>11</v>
@@ -5748,23 +5822,23 @@
       </c>
       <c r="I101" s="26"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D102" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>517</v>
+        <v>427</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>454</v>
@@ -5775,19 +5849,19 @@
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>2</v>
+        <v>518</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>454</v>
@@ -5798,13 +5872,13 @@
       <c r="A104" s="24"/>
       <c r="B104" s="24"/>
       <c r="C104" s="26" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D104" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>2</v>
@@ -5821,19 +5895,19 @@
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D105" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>454</v>
@@ -5844,19 +5918,19 @@
       <c r="A106" s="24"/>
       <c r="B106" s="24"/>
       <c r="C106" s="26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H106" s="26" t="s">
         <v>454</v>
@@ -5867,19 +5941,19 @@
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
       <c r="C107" s="26" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>454</v>
@@ -5890,19 +5964,19 @@
       <c r="A108" s="24"/>
       <c r="B108" s="24"/>
       <c r="C108" s="26" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H108" s="26" t="s">
         <v>454</v>
@@ -5913,19 +5987,19 @@
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="26" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D109" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="H109" s="26" t="s">
         <v>454</v>
@@ -5936,13 +6010,13 @@
       <c r="A110" s="24"/>
       <c r="B110" s="24"/>
       <c r="C110" s="26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D110" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F110" s="26" t="s">
         <v>2</v>
@@ -5959,19 +6033,19 @@
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="26" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D111" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="H111" s="26" t="s">
         <v>454</v>
@@ -5982,19 +6056,19 @@
       <c r="A112" s="24"/>
       <c r="B112" s="24"/>
       <c r="C112" s="26" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D112" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H112" s="26" t="s">
         <v>454</v>
@@ -6005,19 +6079,19 @@
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="26" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D113" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H113" s="26" t="s">
         <v>454</v>
@@ -6028,19 +6102,19 @@
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D114" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="H114" s="26" t="s">
         <v>454</v>
@@ -6051,24 +6125,47 @@
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D115" s="26" t="s">
         <v>454</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="H115" s="26" t="s">
         <v>454</v>
       </c>
       <c r="I115" s="26"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="H116" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I116" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6085,11 +6182,11 @@
     <hyperlink ref="G71" r:id="rId11"/>
     <hyperlink ref="G72" r:id="rId12"/>
     <hyperlink ref="G73" r:id="rId13"/>
-    <hyperlink ref="G88" r:id="rId14"/>
+    <hyperlink ref="G89" r:id="rId14"/>
     <hyperlink ref="G83" r:id="rId15"/>
     <hyperlink ref="G84" r:id="rId16"/>
-    <hyperlink ref="G100" r:id="rId17"/>
-    <hyperlink ref="G101" r:id="rId18"/>
+    <hyperlink ref="G101" r:id="rId17"/>
+    <hyperlink ref="G102" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -6100,7 +6197,7 @@
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F81 F103:F115 F91:F101</xm:sqref>
+          <xm:sqref>F81 F104:F116 F92:F102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="549">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1359,9 +1359,6 @@
     <t>Test.Case.009</t>
   </si>
   <si>
-    <t>Dashboard - Complete Test Case</t>
-  </si>
-  <si>
     <t>Click Sign up link on header</t>
   </si>
   <si>
@@ -1591,6 +1588,87 @@
   </si>
   <si>
     <t>{testdatasheet=EmployeeInfo}</t>
+  </si>
+  <si>
+    <t>Test.Case.013</t>
+  </si>
+  <si>
+    <t>Test Case Covering All Major Items</t>
+  </si>
+  <si>
+    <t>Test.Case.101</t>
+  </si>
+  <si>
+    <t>https://automation.phix-qa08.demo.hcinternal.net/employer/employer/register?manual=true</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Wait for Page to Load</t>
+  </si>
+  <si>
+    <t>xpath=//h2[text()='Employer Registration']</t>
+  </si>
+  <si>
+    <t>xpath=//span[@id="securityQuestion0-button"]</t>
+  </si>
+  <si>
+    <t>xpath=//ul[@id="securityQuestion0-menu"]/li[text()="#SecurityQ1"]</t>
+  </si>
+  <si>
+    <t>What is your oldest cousin's name ?</t>
+  </si>
+  <si>
+    <t>SecurityQ2</t>
+  </si>
+  <si>
+    <t>xpath=//span[@id="securityQuestion1-button"]</t>
+  </si>
+  <si>
+    <t>xpath=//ul[@id="securityQuestion1-menu"]/li[text()="#SecurityQ2"]</t>
+  </si>
+  <si>
+    <t>asjflkdsla</t>
+  </si>
+  <si>
+    <t>ajsdfldsaf</t>
+  </si>
+  <si>
+    <t>xpath=//input[@value='Continue']</t>
+  </si>
+  <si>
+    <t>Click on Continue Button</t>
+  </si>
+  <si>
+    <t>xpath=//h2[text()='Company Information']</t>
+  </si>
+  <si>
+    <t>id=firstName</t>
+  </si>
+  <si>
+    <t>id=lastName</t>
+  </si>
+  <si>
+    <t>id=companyName</t>
+  </si>
+  <si>
+    <t>id=emailId</t>
+  </si>
+  <si>
+    <t>id=searchSIC</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>chuck</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>alexdar, inc.</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1824,6 +1902,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3396,7 +3477,7 @@
         <v>259</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>402</v>
@@ -3961,11 +4042,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5424,10 +5505,10 @@
         <v>444</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="22"/>
@@ -5435,38 +5516,38 @@
         <v>259</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>420</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>7</v>
@@ -5486,7 +5567,7 @@
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -5503,7 +5584,7 @@
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -5511,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
@@ -5520,7 +5601,7 @@
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -5528,20 +5609,20 @@
         <v>344</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="C86" s="22" t="s">
         <v>520</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>521</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -5551,435 +5632,382 @@
         <v>1</v>
       </c>
       <c r="I86" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="C87" s="24" t="s">
+      <c r="B87" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C87" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="24" t="s">
+      <c r="G93" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="I91" s="24"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" s="26" t="s">
-        <v>459</v>
-      </c>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
-      <c r="C94" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G94" s="26" t="s">
-        <v>462</v>
-      </c>
+      <c r="C94" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
-      <c r="C95" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" s="26" t="s">
-        <v>465</v>
-      </c>
+      <c r="C95" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>477</v>
+      <c r="C96" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
-      <c r="C97" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>479</v>
-      </c>
+      <c r="C97" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="I97" s="24"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="26" t="s">
-        <v>446</v>
+        <v>452</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>453</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="26" t="s">
-        <v>515</v>
+        <v>456</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>453</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G99" s="12">
-        <v>7</v>
+        <v>457</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="26" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I100" s="26"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="26" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="H101" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I101" s="26"/>
-    </row>
-    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="26" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>427</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="E102" s="26"/>
       <c r="F102" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I102" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="G102" s="26" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
-      <c r="C103" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>454</v>
+      <c r="C103" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>96</v>
+        <v>477</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>465</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I103" s="26"/>
+        <v>478</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="24"/>
       <c r="B104" s="24"/>
       <c r="C104" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G104" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I104" s="26"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I105" s="26"/>
+        <v>484</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="24"/>
       <c r="B106" s="24"/>
       <c r="C106" s="26" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I106" s="26"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24"/>
       <c r="C107" s="26" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>495</v>
+        <v>426</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="26" t="s">
-        <v>496</v>
+        <v>11</v>
+      </c>
+      <c r="G107" s="29" t="s">
+        <v>515</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I107" s="26"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="24"/>
       <c r="B108" s="24"/>
       <c r="C108" s="26" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="F108" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="26" t="s">
-        <v>498</v>
+      <c r="G108" s="29" t="s">
+        <v>515</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I108" s="26"/>
     </row>
@@ -5987,22 +6015,22 @@
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="F109" s="26" t="s">
-        <v>22</v>
+        <v>517</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I109" s="26"/>
     </row>
@@ -6010,22 +6038,22 @@
       <c r="A110" s="24"/>
       <c r="B110" s="24"/>
       <c r="C110" s="26" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F110" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I110" s="26"/>
     </row>
@@ -6033,22 +6061,22 @@
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="26" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F111" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H111" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I111" s="26"/>
     </row>
@@ -6056,22 +6084,22 @@
       <c r="A112" s="24"/>
       <c r="B112" s="24"/>
       <c r="C112" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F112" s="26" t="s">
         <v>68</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I112" s="26"/>
     </row>
@@ -6079,22 +6107,22 @@
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="26" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F113" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="H113" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I113" s="26"/>
     </row>
@@ -6102,22 +6130,22 @@
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="26" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="F114" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I114" s="26"/>
     </row>
@@ -6125,22 +6153,22 @@
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="26" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="H115" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I115" s="26"/>
     </row>
@@ -6148,24 +6176,577 @@
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H116" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I116" s="26"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I117" s="26"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="H118" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I118" s="26"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I119" s="26"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="G120" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I120" s="26"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I121" s="26"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E122" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="D116" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E116" s="26" t="s">
+      <c r="F122" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G122" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="F116" s="26" t="s">
+      <c r="H122" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I122" s="26"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G116" s="26" t="s">
+      <c r="G126" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C127" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="H116" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I116" s="26"/>
+      <c r="E127" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G127" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C128" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I128" s="26"/>
+    </row>
+    <row r="129" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C129" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I129" s="26"/>
+    </row>
+    <row r="130" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C130" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="H130" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I130" s="26"/>
+    </row>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C131" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="H131" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I131" s="26"/>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C132" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G132" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I132" s="26"/>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C133" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H133" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="I133" s="26"/>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C134" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C135" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C136" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+    </row>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C137" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C138" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C139" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+    </row>
+    <row r="140" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C140" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G140" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+    </row>
+    <row r="141" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C141" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+    </row>
+    <row r="142" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C142" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+    </row>
+    <row r="143" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C143" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+    </row>
+    <row r="144" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C144" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="12" t="str">
+        <f>CONCATENATE("employee","RANDBETWEEN(10000,999999)","@me.org")</f>
+        <v>employeeRANDBETWEEN(10000,999999)@me.org</v>
+      </c>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+    </row>
+    <row r="145" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C145" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+    </row>
+    <row r="146" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C146" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" s="26"/>
+      <c r="F146" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C147" s="16"/>
+      <c r="E147" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6182,14 +6763,17 @@
     <hyperlink ref="G71" r:id="rId11"/>
     <hyperlink ref="G72" r:id="rId12"/>
     <hyperlink ref="G73" r:id="rId13"/>
-    <hyperlink ref="G89" r:id="rId14"/>
+    <hyperlink ref="G95" r:id="rId14"/>
     <hyperlink ref="G83" r:id="rId15"/>
     <hyperlink ref="G84" r:id="rId16"/>
-    <hyperlink ref="G101" r:id="rId17"/>
-    <hyperlink ref="G102" r:id="rId18"/>
+    <hyperlink ref="G107" r:id="rId17"/>
+    <hyperlink ref="G108" r:id="rId18"/>
+    <hyperlink ref="G125" r:id="rId19"/>
+    <hyperlink ref="G129" r:id="rId20"/>
+    <hyperlink ref="G130" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6197,7 +6781,7 @@
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F81 F104:F116 F92:F102</xm:sqref>
+          <xm:sqref>F81 F98:F108 F126:F130 F121:F122 F132:F134 F110:F119 F136:F145</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="548">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1351,9 +1351,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Hold</t>
   </si>
   <si>
     <t>Test.Case.009</t>
@@ -1675,7 +1672,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,8 +1768,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1805,8 +1816,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1834,9 +1849,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1849,12 +1866,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1906,9 +1917,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2294,14 +2313,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
@@ -2317,1646 +2336,1647 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="C12" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="C15" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="C18" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="C27" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="C32" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="C36" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="C39" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="C40" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="C41" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="C42" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="C43" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="C44" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="C45" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="C46" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="C47" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="C48" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="C49" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="C50" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="C51" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="C52" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="C53" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="C54" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="C55" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="C56" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="C57" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="C58" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="C59" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="C60" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="C61" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="C62" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="C64" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="C65" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="C66" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="C67" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="C68" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="C72" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+      <c r="C74" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+      <c r="C75" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+      <c r="C76" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+      <c r="C79" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="C80" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+      <c r="C82" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+      <c r="C83" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+      <c r="C86" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="C87" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="C88" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="C89" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+      <c r="C90" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+      <c r="C91" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+      <c r="C92" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+      <c r="C93" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+      <c r="C94" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+      <c r="C95" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="C96" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+      <c r="C97" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+      <c r="C98" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+      <c r="C99" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+      <c r="C100" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+      <c r="C101" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+      <c r="C103" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+      <c r="C104" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+      <c r="C105" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="C106" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C107" s="7" t="s">
+      <c r="B107" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="C107" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+      <c r="C108" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+      <c r="C109" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+      <c r="C110" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
+      <c r="C111" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+      <c r="C112" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="C113" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+      <c r="C115" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
+      <c r="C116" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+      <c r="C117" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+      <c r="C121" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
+      <c r="C122" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+      <c r="C124" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+      <c r="C125" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+      <c r="C126" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
+      <c r="C128" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
+      <c r="C129" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
+      <c r="C130" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
+      <c r="C131" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="C132" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
+      <c r="C133" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
+      <c r="C134" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+      <c r="C135" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
+      <c r="C136" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
+      <c r="C137" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
+      <c r="C138" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
+      <c r="C140" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
+      <c r="C141" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
+      <c r="C142" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
+      <c r="C143" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
+      <c r="C144" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+      <c r="C146" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
+      <c r="C148" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
+      <c r="C149" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>443</v>
+      <c r="C150" s="30" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C150"/>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -4044,2709 +4064,2709 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="123.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="123.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>30</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>1000</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>1</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>5</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="9">
         <v>2</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="16" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="16" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="16" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="13" t="s">
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="16" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="16" t="s">
+      <c r="D45" s="9"/>
+      <c r="E45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="16" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="16" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="9">
         <v>5</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="16" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="17" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="9">
         <v>1</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="9" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="19" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="9">
         <v>18017</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="9">
         <v>18017</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13" t="s">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="20" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="9">
         <v>30</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="20" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="13" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="20" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="20" t="s">
+      <c r="D73" s="7"/>
+      <c r="E73" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="7">
         <v>1</v>
       </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11" t="s">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="13" t="s">
+      <c r="H76" s="7"/>
+      <c r="I76" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="13" t="s">
+      <c r="H77" s="7"/>
+      <c r="I77" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13" t="s">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="E96" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G97" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-    </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="C82" s="22" t="s">
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="8">
         <v>7</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="13" t="s">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I106" s="22"/>
+    </row>
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I107" s="22"/>
+    </row>
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I108" s="22"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I109" s="22"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I110" s="22"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I111" s="22"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I112" s="22"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I113" s="22"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I115" s="22"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I118" s="22"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I119" s="22"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="G120" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I120" s="22"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H121" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I121" s="22"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="H122" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I122" s="22"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G123" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="13" t="s">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="20"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="G85" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="13">
-        <v>1</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="C87" s="22" t="s">
+      <c r="G125" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C127" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G127" s="8">
         <v>7</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24" t="s">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C128" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F96" s="12" t="s">
+      <c r="D128" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C129" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C130" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I130" s="22"/>
+    </row>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C131" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I131" s="22"/>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C132" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" s="22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="G97" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="I97" s="24"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="26" t="s">
+      <c r="G132" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D98" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="F98" s="26" t="s">
+      <c r="H132" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C133" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C134" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C135" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G98" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G100" s="26" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G101" s="26" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="G103" s="26" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="G135" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C136" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="F136" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I104" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="F105" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G105" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C137" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C138" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F138" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I106" s="26"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="F107" s="26" t="s">
+      <c r="G138" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C139" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
+    </row>
+    <row r="140" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C140" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C141" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F141" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="H107" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I107" s="26"/>
-    </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="F108" s="26" t="s">
+      <c r="G141" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="H141" s="22"/>
+      <c r="I141" s="22"/>
+    </row>
+    <row r="142" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C142" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="F142" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I108" s="26"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="H109" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I109" s="26"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I110" s="26"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H111" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I111" s="26"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I112" s="26"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="H113" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I113" s="26"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F114" s="26" t="s">
+      <c r="G142" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+    </row>
+    <row r="143" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C143" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="F143" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="H114" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I114" s="26"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="H115" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I115" s="26"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="F116" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G116" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H116" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I116" s="26"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H117" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I117" s="26"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G118" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="H118" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I118" s="26"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G119" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="H119" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I119" s="26"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="G120" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="H120" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I120" s="26"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H121" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I121" s="26"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="F122" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="H122" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I122" s="26"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" s="24"/>
-    </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="F126" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G126" s="26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C127" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G127" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C128" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="F128" s="26" t="s">
+      <c r="G143" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+    </row>
+    <row r="144" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="C144" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="F144" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G128" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="H128" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I128" s="26"/>
-    </row>
-    <row r="129" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C129" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="F129" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="H129" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I129" s="26"/>
-    </row>
-    <row r="130" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C130" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="H130" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I130" s="26"/>
-    </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C131" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="H131" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I131" s="26"/>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C132" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H132" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I132" s="26"/>
-    </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C133" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="F133" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G133" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H133" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="I133" s="26"/>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C134" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-    </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C135" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C136" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="F136" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-    </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C137" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="F137" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-    </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C138" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="F138" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-    </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C139" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-    </row>
-    <row r="140" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C140" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-    </row>
-    <row r="141" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C141" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="F141" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-    </row>
-    <row r="142" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C142" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-    </row>
-    <row r="143" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C143" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="F143" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-    </row>
-    <row r="144" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C144" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="F144" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="12" t="str">
+      <c r="G144" s="8" t="str">
         <f>CONCATENATE("employee","RANDBETWEEN(10000,999999)","@me.org")</f>
         <v>employeeRANDBETWEEN(10000,999999)@me.org</v>
       </c>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
     </row>
     <row r="145" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C145" s="16" t="s">
+      <c r="C145" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26" t="s">
+      <c r="D145" s="22"/>
+      <c r="E145" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="F145" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
     </row>
     <row r="146" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C146" s="16" t="s">
+      <c r="C146" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E146" s="26"/>
-      <c r="F146" s="12" t="s">
+      <c r="E146" s="22"/>
+      <c r="F146" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G146" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C147" s="16"/>
-      <c r="E147" s="26"/>
+      <c r="C147" s="12"/>
+      <c r="E147" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="550">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1666,6 +1666,12 @@
   </si>
   <si>
     <t>alexdar, inc.</t>
+  </si>
+  <si>
+    <t>Test.Case.102</t>
+  </si>
+  <si>
+    <t>Run Test Case</t>
   </si>
 </sst>
 </file>
@@ -1947,6 +1953,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="$changeLog$"/>
       <sheetName val="Speciality Benefits"/>
       <sheetName val="Manage Users"/>
       <sheetName val="WIC_Group_Lead"/>
@@ -1984,41 +1991,42 @@
       <sheetName val="$plugin$"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2313,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3976,7 +3984,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C150"/>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -3989,9 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4062,11 +4067,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6735,7 +6740,7 @@
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
     </row>
-    <row r="145" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="C145" s="12" t="s">
         <v>49</v>
       </c>
@@ -6752,7 +6757,7 @@
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
     </row>
-    <row r="146" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="C146" s="12" t="s">
         <v>51</v>
       </c>
@@ -6764,9 +6769,66 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C147" s="12"/>
-      <c r="E147" s="22"/>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C150" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>523</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6791,9 +6853,10 @@
     <hyperlink ref="G125" r:id="rId19"/>
     <hyperlink ref="G129" r:id="rId20"/>
     <hyperlink ref="G130" r:id="rId21"/>
+    <hyperlink ref="G149" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="557">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1672,6 +1672,27 @@
   </si>
   <si>
     <t>Run Test Case</t>
+  </si>
+  <si>
+    <t>Test.Case.103</t>
+  </si>
+  <si>
+    <t>Test.Case.104</t>
+  </si>
+  <si>
+    <t>Main Test Case</t>
+  </si>
+  <si>
+    <t>Sub Test Case 1</t>
+  </si>
+  <si>
+    <t>#ConfirmPassword</t>
+  </si>
+  <si>
+    <t>#Password</t>
+  </si>
+  <si>
+    <t>Run Sub Test Case 1</t>
   </si>
 </sst>
 </file>
@@ -4067,11 +4088,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6828,6 +6849,199 @@
       </c>
       <c r="F150" s="20" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H151" s="20">
+        <v>3</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C155" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C156" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C158" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G158" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C159" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E159" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C160" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C161" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C162" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6854,9 +7068,11 @@
     <hyperlink ref="G129" r:id="rId20"/>
     <hyperlink ref="G130" r:id="rId21"/>
     <hyperlink ref="G149" r:id="rId22"/>
+    <hyperlink ref="G153" r:id="rId23"/>
+    <hyperlink ref="G154" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6864,7 +7080,7 @@
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F81 F98:F108 F126:F130 F121:F122 F132:F134 F110:F119 F136:F145</xm:sqref>
+          <xm:sqref>F81 F98:F108 F126:F130 F121:F122 F132:F134 F110:F119 F136:F145 F157:F161</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="618">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1545,9 +1545,6 @@
     <t>Answer second security question</t>
   </si>
   <si>
-    <t>#SecurityA2</t>
-  </si>
-  <si>
     <t>Click create account/continue button</t>
   </si>
   <si>
@@ -1693,13 +1690,199 @@
   </si>
   <si>
     <t>Run Sub Test Case 1</t>
+  </si>
+  <si>
+    <t>Employer.workflow.createPackage()</t>
+  </si>
+  <si>
+    <t>Launch employer portal</t>
+  </si>
+  <si>
+    <t>Employer.launchPortal()</t>
+  </si>
+  <si>
+    <t>{testdatasheet=Workflow_Data}{#LaunchPortal}</t>
+  </si>
+  <si>
+    <t>Click signup link on header</t>
+  </si>
+  <si>
+    <t>Employer.header.clickSignup()</t>
+  </si>
+  <si>
+    <t>{#SignUpInfo}</t>
+  </si>
+  <si>
+    <t>Signup for a new employer account</t>
+  </si>
+  <si>
+    <t>Employer.signup()</t>
+  </si>
+  <si>
+    <t>#SignUpInfo</t>
+  </si>
+  <si>
+    <t>Click begin button on overview page</t>
+  </si>
+  <si>
+    <t>Employer.Overview.clickBegin()</t>
+  </si>
+  <si>
+    <t>Download roster, add records and upload</t>
+  </si>
+  <si>
+    <t>Employer.manageEmployee.createAndUploadRoster()</t>
+  </si>
+  <si>
+    <t>#UploadEmployeeRoster</t>
+  </si>
+  <si>
+    <t>{#UploadEmployeeRoster}{knownDefect=PHIX-14012}</t>
+  </si>
+  <si>
+    <t>Click add more employees</t>
+  </si>
+  <si>
+    <t>Employer.manageEmployee.clickAddMoreEmployees()</t>
+  </si>
+  <si>
+    <t>{#UploadEmployeeRoster}{knownDefect=PHIX-14012}{#AddManualEmployee}</t>
+  </si>
+  <si>
+    <t>Add an employee manually</t>
+  </si>
+  <si>
+    <t>Employer.manageEmployee.addManually()</t>
+  </si>
+  <si>
+    <t>#AddManualEmployee</t>
+  </si>
+  <si>
+    <t>{#AddManualEmployee}</t>
+  </si>
+  <si>
+    <t>Verify manually added employee is displayed</t>
+  </si>
+  <si>
+    <t>Employer.manageEmployee.verifyEmployeeExists()</t>
+  </si>
+  <si>
+    <t>#Employee ID</t>
+  </si>
+  <si>
+    <t>{#AddManualEmployee}{skip}</t>
+  </si>
+  <si>
+    <t>Select create a new package option from header</t>
+  </si>
+  <si>
+    <t>Employer.header.createNewPackage()</t>
+  </si>
+  <si>
+    <t>#AddMoreEmployees</t>
+  </si>
+  <si>
+    <t>{#OnEmployerPortal}</t>
+  </si>
+  <si>
+    <t>Provide package details</t>
+  </si>
+  <si>
+    <t>Employer.DefineSettings.fillDetails()</t>
+  </si>
+  <si>
+    <t>#PackageDetails</t>
+  </si>
+  <si>
+    <t>{#PackageDetails}</t>
+  </si>
+  <si>
+    <t>Select contribution and fill details</t>
+  </si>
+  <si>
+    <t>Employer.defineSettings.fillContribution()</t>
+  </si>
+  <si>
+    <t>#ContributionDetails</t>
+  </si>
+  <si>
+    <t>{#ContributionDetails}</t>
+  </si>
+  <si>
+    <t>Click on Find Plans button</t>
+  </si>
+  <si>
+    <t>Employer.defineSettings.clickFindPlans()</t>
+  </si>
+  <si>
+    <t>Select plans for each specified category</t>
+  </si>
+  <si>
+    <t>Employer.workflow.selectPlans()</t>
+  </si>
+  <si>
+    <t>wait for all plan selections to complete</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>{takescreenshot}</t>
+  </si>
+  <si>
+    <t>Click Review Package button</t>
+  </si>
+  <si>
+    <t>Employer.planList.clickReviewPackage()</t>
+  </si>
+  <si>
+    <t>{#SharePackage}</t>
+  </si>
+  <si>
+    <t>Click Share button</t>
+  </si>
+  <si>
+    <t>Employer.reviewPackage.share()</t>
+  </si>
+  <si>
+    <t>Enter sharing details and send</t>
+  </si>
+  <si>
+    <t>Employer.sharePackage.share()</t>
+  </si>
+  <si>
+    <t>#AutoRenewal</t>
+  </si>
+  <si>
+    <t>Verify package sent success message</t>
+  </si>
+  <si>
+    <t>Employer.sharePackage.verifySuccess()</t>
+  </si>
+  <si>
+    <t>Get EnrollmentSetupId from URL</t>
+  </si>
+  <si>
+    <t>Employer.sharePackage.getProposalID()</t>
+  </si>
+  <si>
+    <t>#EmployerUrl</t>
+  </si>
+  <si>
+    <t>Launch employer portal in a new browser window</t>
+  </si>
+  <si>
+    <t>Click on sign up link</t>
+  </si>
+  <si>
+    <t>link=Sign Up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,49 +1936,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1805,6 +1945,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1879,10 +2056,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1896,60 +2073,68 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1974,39 +2159,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="$changeLog$"/>
-      <sheetName val="Speciality Benefits"/>
-      <sheetName val="Manage Users"/>
-      <sheetName val="WIC_Group_Lead"/>
-      <sheetName val="WIC_methods_Sonal"/>
       <sheetName val="methods"/>
-      <sheetName val="WIC_Group_Setup"/>
-      <sheetName val="WIC Enrollment Setup"/>
-      <sheetName val="TestRegistration"/>
-      <sheetName val="Sign UpSign In"/>
-      <sheetName val="Sanity"/>
-      <sheetName val="Review Proposals"/>
-      <sheetName val="Renewal"/>
-      <sheetName val="Rating_Statewise"/>
-      <sheetName val="Rating - Composite"/>
-      <sheetName val="Rating - Community"/>
-      <sheetName val="Rating - Age Banded"/>
-      <sheetName val="Plan Listing"/>
-      <sheetName val="Payroll Report"/>
-      <sheetName val="Manage Packages"/>
-      <sheetName val="Manage Enrollments"/>
-      <sheetName val="Manage Employees"/>
-      <sheetName val="Manage Classes"/>
-      <sheetName val="LSC"/>
-      <sheetName val="ITL"/>
-      <sheetName val="Flex"/>
       <sheetName val="EndToEnd Flows"/>
-      <sheetName val="Define Settings"/>
-      <sheetName val="Define Contribution"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Anonymous Flow"/>
-      <sheetName val="Ancillary"/>
-      <sheetName val="Account Information"/>
       <sheetName val="Sheet1"/>
       <sheetName val="$automationKeywords$"/>
       <sheetName val="$plugin$"/>
@@ -2017,37 +2171,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2344,7 +2467,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2366,1641 +2489,1641 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C129" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C130" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C135" s="30" t="s">
+      <c r="C135" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="30" t="s">
+      <c r="C136" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C137" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="30" t="s">
+      <c r="C138" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C143" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C146" s="30" t="s">
+      <c r="C146" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="30" t="s">
+      <c r="C148" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="C149" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="30" t="s">
+      <c r="A150" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="C150" s="11" t="s">
         <v>442</v>
       </c>
     </row>
@@ -4059,25 +4182,25 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="1"/>
     </row>
   </sheetData>
@@ -4088,24 +4211,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="123.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="123.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4139,2909 +4262,3542 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="14">
         <v>30</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="14">
         <v>1000</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="14">
         <v>1</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="14">
         <v>5</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="14">
         <v>1</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="14">
         <v>2</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="12" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="12" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="12" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="12" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="12" t="s">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12" t="s">
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9" t="s">
+      <c r="D44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="12" t="s">
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="12" t="s">
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="12" t="s">
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="14">
         <v>5</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="12" t="s">
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="13" t="s">
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="14">
         <v>1</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="15" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="15" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="14">
         <v>18017</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="14">
         <v>18017</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="16" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="14">
         <v>30</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9" t="s">
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="16" t="s">
+      <c r="D68" s="14"/>
+      <c r="E68" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9" t="s">
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="9" t="s">
+      <c r="D70" s="14"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9" t="s">
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="14"/>
+      <c r="E72" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="16" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="22">
         <v>1</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="9" t="s">
+      <c r="H76" s="22"/>
+      <c r="I76" s="14" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="9" t="s">
+      <c r="H77" s="22"/>
+      <c r="I77" s="14" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="19" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="9" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="18" t="s">
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="9" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="18" t="s">
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="9" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="18" t="s">
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="17" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="C86" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="14">
+        <v>1</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="9">
+    </row>
+    <row r="87" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="G95" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="28"/>
+      <c r="E96" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="D97" s="28"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="H97" s="28"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D103" s="28"/>
+      <c r="E103" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="D104" s="28"/>
+      <c r="E104" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D105" s="28"/>
+      <c r="E105" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="28">
+        <v>7</v>
+      </c>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I106" s="29"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H107" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I107" s="29"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H108" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I108" s="29"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I109" s="29"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I110" s="29"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I111" s="29"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I112" s="29"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I113" s="29"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I114" s="29"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I115" s="29"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I116" s="29"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I117" s="29"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I118" s="29"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I119" s="29"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I120" s="29"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I121" s="29"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B122" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C87" s="18" t="s">
+      <c r="C122" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C93" s="20" t="s">
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="26"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+    </row>
+    <row r="125" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G125" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" s="28"/>
+      <c r="E126" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G126" s="28">
         <v>7</v>
       </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="F96" s="8" t="s">
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H127" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I127" s="29"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I128" s="29"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H129" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I129" s="29"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H130" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I130" s="29"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="F131" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="I97" s="20"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="F98" s="22" t="s">
+      <c r="G131" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H131" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I131" s="29"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H132" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I132" s="29"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G98" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="F99" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="F100" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G100" s="22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="F104" s="22" t="s">
+      <c r="G134" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="F135" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G105" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="F106" s="22" t="s">
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="F137" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="H106" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I106" s="22"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F107" s="22" t="s">
+      <c r="G137" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+    </row>
+    <row r="139" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+    </row>
+    <row r="140" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="F140" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H107" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I107" s="22"/>
-    </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F108" s="22" t="s">
+      <c r="G140" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+    </row>
+    <row r="141" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="F141" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H108" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I108" s="22"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="H109" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I109" s="22"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H110" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I110" s="22"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H111" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I111" s="22"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="H112" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I112" s="22"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="H113" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I113" s="22"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F114" s="22" t="s">
+      <c r="G141" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+    </row>
+    <row r="142" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="F142" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="H114" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I114" s="22"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I115" s="22"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="F116" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I116" s="22"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="F117" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H117" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I117" s="22"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F118" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="H118" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I118" s="22"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="H119" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I119" s="22"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="G120" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="H120" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I120" s="22"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="D121" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="F121" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H121" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I121" s="22"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="F122" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="H122" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I122" s="22"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" s="20"/>
-    </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G125" s="26" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="F126" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C127" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G127" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C128" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="F128" s="22" t="s">
+      <c r="G142" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+    </row>
+    <row r="143" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="F143" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G128" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="H128" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I128" s="22"/>
-    </row>
-    <row r="129" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C129" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F129" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H129" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I129" s="22"/>
-    </row>
-    <row r="130" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C130" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F130" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H130" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I130" s="22"/>
-    </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C131" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I131" s="22"/>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C132" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="F132" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H132" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I132" s="22"/>
-    </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C133" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H133" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="I133" s="22"/>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C134" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F134" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-    </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C135" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C136" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="F136" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
-    </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C137" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="F137" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
-    </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C138" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="F138" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
-    </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C139" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="F139" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
-    </row>
-    <row r="140" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C140" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F140" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="H140" s="22"/>
-      <c r="I140" s="22"/>
-    </row>
-    <row r="141" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C141" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="F141" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="H141" s="22"/>
-      <c r="I141" s="22"/>
-    </row>
-    <row r="142" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C142" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="F142" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="H142" s="22"/>
-      <c r="I142" s="22"/>
-    </row>
-    <row r="143" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C143" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="F143" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-    </row>
-    <row r="144" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C144" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="F144" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="8" t="str">
+      <c r="G143" s="28" t="str">
         <f>CONCATENATE("employee","RANDBETWEEN(10000,999999)","@me.org")</f>
         <v>employeeRANDBETWEEN(10000,999999)@me.org</v>
       </c>
-      <c r="H144" s="22"/>
-      <c r="I144" s="22"/>
-    </row>
-    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C145" s="12" t="s">
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+    </row>
+    <row r="144" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22" t="s">
+      <c r="D144" s="29"/>
+      <c r="E144" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+    </row>
+    <row r="145" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="28"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" s="28"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="28">
+        <v>30</v>
+      </c>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" s="26">
+        <v>3</v>
+      </c>
+      <c r="I150" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+    </row>
+    <row r="156" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G156" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G157" s="28">
+        <v>7</v>
+      </c>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F158" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G145" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
-    </row>
-    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C146" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E146" s="22"/>
-      <c r="F146" s="8" t="s">
+      <c r="G158" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F159" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G161" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B162" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E162" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="G162" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H162" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I162" s="32" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="30"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="D163" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E163" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F163" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="G163" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H163" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I163" s="32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="30"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E164" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F164" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="G164" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H164" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="I164" s="32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="30"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E165" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F165" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="G165" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H165" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I165" s="32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="30"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="D166" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E166" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F166" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="H166" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I166" s="32" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="30"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="D167" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E167" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F167" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H167" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I167" s="32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="30"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="D168" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E168" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H168" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="I168" s="32" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="30"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D169" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F169" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="H169" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I169" s="32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="30"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E170" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F170" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="H170" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="30"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="D171" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F171" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="G171" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H171" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="I171" s="32" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="30"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D172" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="G172" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H172" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="I172" s="32" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="30"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H173" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I173" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="30"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D174" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F174" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="G174" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H174" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I174" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="30"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D175" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F175" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G146" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20" t="s">
+      <c r="G175" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="H175" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I175" s="32" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="30"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="D176" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F176" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="G176" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H176" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I176" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="30"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D177" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F177" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="G177" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H177" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I177" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="30"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D178" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E178" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="G178" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="H178" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I178" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="30"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="D179" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H179" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I179" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="30"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="D180" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="H180" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="I180" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A181" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F181" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G147" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G149" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C150" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H151" s="20">
-        <v>3</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="20"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="20"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-    </row>
-    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G154" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C155" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="F155" s="20" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C156" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F156" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C158" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F158" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G158" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C159" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E159" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="F159" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C160" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F160" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="161" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C161" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C162" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>515</v>
+      <c r="G181" s="13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7064,23 +7820,29 @@
     <hyperlink ref="G84" r:id="rId16"/>
     <hyperlink ref="G107" r:id="rId17"/>
     <hyperlink ref="G108" r:id="rId18"/>
-    <hyperlink ref="G125" r:id="rId19"/>
-    <hyperlink ref="G129" r:id="rId20"/>
-    <hyperlink ref="G130" r:id="rId21"/>
-    <hyperlink ref="G149" r:id="rId22"/>
-    <hyperlink ref="G153" r:id="rId23"/>
-    <hyperlink ref="G154" r:id="rId24"/>
+    <hyperlink ref="G124" r:id="rId19"/>
+    <hyperlink ref="G128" r:id="rId20"/>
+    <hyperlink ref="G129" r:id="rId21"/>
+    <hyperlink ref="G148" r:id="rId22"/>
+    <hyperlink ref="G152" r:id="rId23"/>
+    <hyperlink ref="G153" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F81 F98:F108 F126:F130 F121:F122 F132:F134 F110:F119 F136:F145 F157:F161</xm:sqref>
+          <xm:sqref>F81 F98:F108 F125:F129 F131:F133 F110:F121 F135:F144 F156:F160</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F162:F182</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
-    <sheet name="Template" sheetId="20" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
+    <sheet name="Template" sheetId="20" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$151</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="625">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1876,6 +1877,27 @@
   </si>
   <si>
     <t>link=Sign Up</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>{optional}</t>
+  </si>
+  <si>
+    <t>{nowait}</t>
+  </si>
+  <si>
+    <t>sendKeys</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>{nolog}</t>
+  </si>
+  <si>
+    <t>updateExcelCell</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2081,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2135,6 +2157,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2159,6 +2184,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="$changeLog$"/>
       <sheetName val="methods"/>
       <sheetName val="EndToEnd Flows"/>
       <sheetName val="Sheet1"/>
@@ -2171,6 +2197,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2463,11 +2490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2749,7 +2776,7 @@
         <v>169</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -2914,7 +2941,7 @@
         <v>276</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -3057,7 +3084,7 @@
         <v>186</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -3123,7 +3150,7 @@
         <v>192</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -3717,7 +3744,7 @@
         <v>347</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -4008,18 +4035,16 @@
     </row>
     <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>265</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="B140" s="11"/>
       <c r="C140" s="11" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>265</v>
@@ -4030,10 +4055,10 @@
     </row>
     <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>442</v>
@@ -4041,10 +4066,10 @@
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>442</v>
@@ -4052,65 +4077,65 @@
     </row>
     <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="C145" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B147" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
+      <c r="C147" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B148" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>442</v>
@@ -4118,13 +4143,35 @@
     </row>
     <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B151" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>442</v>
+      <c r="C151" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -4137,6 +4184,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4209,11 +4297,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$153</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="627">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1171,9 +1171,6 @@
     <t>Convert from single line to multi-line file for ease of viewing</t>
   </si>
   <si>
-    <t>Run javascript on page/element</t>
-  </si>
-  <si>
     <t>Test Case Number Four</t>
   </si>
   <si>
@@ -1898,13 +1895,22 @@
   </si>
   <si>
     <t>updateExcelCell</t>
+  </si>
+  <si>
+    <t>unCheckAll</t>
+  </si>
+  <si>
+    <t>Run javascript on page/element or use javascript to decide the value of flag</t>
+  </si>
+  <si>
+    <t>{knownDefect=PHIX-28031}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2008,8 +2014,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2050,6 +2063,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2075,13 +2093,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2160,8 +2179,13 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -2184,20 +2208,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="$changeLog$"/>
-      <sheetName val="methods"/>
-      <sheetName val="EndToEnd Flows"/>
       <sheetName val="Sheet1"/>
       <sheetName val="$automationKeywords$"/>
       <sheetName val="$plugin$"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2490,11 +2508,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C152"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2512,10 +2531,10 @@
         <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
@@ -2523,10 +2542,10 @@
         <v>179</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>269</v>
       </c>
@@ -2534,10 +2553,10 @@
         <v>270</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
@@ -2545,10 +2564,10 @@
         <v>131</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>134</v>
       </c>
@@ -2556,10 +2575,10 @@
         <v>135</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>138</v>
       </c>
@@ -2567,10 +2586,10 @@
         <v>139</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>142</v>
       </c>
@@ -2578,10 +2597,10 @@
         <v>143</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>148</v>
       </c>
@@ -2589,10 +2608,10 @@
         <v>149</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>144</v>
       </c>
@@ -2600,10 +2619,10 @@
         <v>145</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>146</v>
       </c>
@@ -2611,32 +2630,32 @@
         <v>147</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>442</v>
+      <c r="C11" s="35" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>156</v>
       </c>
@@ -2644,10 +2663,10 @@
         <v>157</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>154</v>
       </c>
@@ -2655,10 +2674,10 @@
         <v>155</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>158</v>
       </c>
@@ -2666,10 +2685,10 @@
         <v>159</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -2677,10 +2696,10 @@
         <v>133</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
@@ -2688,10 +2707,10 @@
         <v>137</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>140</v>
       </c>
@@ -2699,10 +2718,10 @@
         <v>141</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>162</v>
       </c>
@@ -2710,10 +2729,10 @@
         <v>163</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>160</v>
       </c>
@@ -2721,10 +2740,10 @@
         <v>161</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>176</v>
       </c>
@@ -2732,10 +2751,10 @@
         <v>177</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>164</v>
       </c>
@@ -2743,21 +2762,21 @@
         <v>165</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>174</v>
       </c>
@@ -2765,21 +2784,21 @@
         <v>175</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>170</v>
       </c>
@@ -2787,10 +2806,10 @@
         <v>171</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>172</v>
       </c>
@@ -2798,10 +2817,10 @@
         <v>173</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -2809,10 +2828,10 @@
         <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>267</v>
       </c>
@@ -2820,10 +2839,10 @@
         <v>268</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>303</v>
       </c>
@@ -2831,10 +2850,10 @@
         <v>304</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>84</v>
       </c>
@@ -2842,1339 +2861,1355 @@
         <v>180</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>442</v>
+      <c r="C32" s="35" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="C35" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="C37" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="C38" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="C39" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="C40" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B41" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="C41" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="C42" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="C43" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="C44" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="C45" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="C46" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="C48" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="C49" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="C50" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="C51" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="C52" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="C53" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B54" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="C54" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="C55" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="C56" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="C57" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="C58" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="C59" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="C60" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="C61" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="C62" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="C63" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="C64" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="C65" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="C66" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="C67" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="C68" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B69" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="C69" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="C70" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="C71" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="C72" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B73" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="C73" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="C74" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="C75" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="C76" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="C77" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="C78" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="C79" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B80" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="C80" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="C81" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="C82" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B83" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="C83" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B84" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="C84" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="C85" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="C86" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="C87" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B88" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="C88" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B89" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="C89" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B90" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="C90" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B91" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="C91" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B92" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="C92" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="C93" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="C94" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="C95" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B96" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="C96" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>366</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B99" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="C99" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="C100" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="B103" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B104" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="C104" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B105" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="C105" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+      <c r="B108" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B109" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="C109" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B110" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="C110" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B111" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="C111" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B112" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="C112" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B113" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="C113" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B114" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="C114" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="C115" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="C116" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B117" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="C117" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B118" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="C118" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B119" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="C119" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B120" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="C120" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="C121" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B122" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="C122" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B123" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="C123" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B124" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+      <c r="C124" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B125" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+      <c r="C125" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B126" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C125" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="C126" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B127" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="C127" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="C128" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="C129" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="C130" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B131" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="C131" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B132" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+      <c r="C132" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="C133" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="C134" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="C135" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B136" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+      <c r="C136" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="C137" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B138" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="C138" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B139" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="C139" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B140" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11" t="s">
-        <v>622</v>
+      <c r="C140" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B144" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C143" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+      <c r="C144" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B145" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="C145" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B146" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+      <c r="C146" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B147" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+      <c r="C147" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B148" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="C148" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B149" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="C149" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+      <c r="C150" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B151" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+      <c r="C151" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>621</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>622</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C153">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TODO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -4185,38 +4220,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4396,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>7</v>
@@ -4372,7 +4414,7 @@
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -4831,7 +4873,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>7</v>
@@ -5196,17 +5238,17 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>386</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>11</v>
@@ -5219,13 +5261,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>390</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -5242,7 +5284,7 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -5250,13 +5292,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>395</v>
-      </c>
       <c r="I51" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5278,11 +5320,11 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>2</v>
@@ -5299,7 +5341,7 @@
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>11</v>
@@ -5312,10 +5354,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>7</v>
@@ -5335,7 +5377,7 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -5343,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -5352,11 +5394,11 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>2</v>
@@ -5369,11 +5411,11 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>2</v>
@@ -5386,11 +5428,11 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>2</v>
@@ -5403,11 +5445,11 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>93</v>
@@ -5422,11 +5464,11 @@
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>2</v>
@@ -5439,11 +5481,11 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>2</v>
@@ -5469,10 +5511,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>7</v>
@@ -5507,7 +5549,7 @@
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -5515,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
@@ -5524,11 +5566,11 @@
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>85</v>
@@ -5543,11 +5585,11 @@
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>2</v>
@@ -5560,7 +5602,7 @@
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -5575,7 +5617,7 @@
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="22"/>
@@ -5583,7 +5625,7 @@
         <v>83</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -5592,17 +5634,17 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -5611,17 +5653,17 @@
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -5634,13 +5676,13 @@
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -5649,11 +5691,11 @@
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>22</v>
@@ -5668,17 +5710,17 @@
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -5687,42 +5729,42 @@
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -5733,7 +5775,7 @@
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>2</v>
@@ -5759,13 +5801,13 @@
     </row>
     <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="24"/>
@@ -5773,38 +5815,38 @@
         <v>259</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>468</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>469</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>7</v>
@@ -5824,7 +5866,7 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
@@ -5832,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
@@ -5841,7 +5883,7 @@
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -5849,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
@@ -5858,7 +5900,7 @@
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
@@ -5866,20 +5908,20 @@
         <v>344</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="C86" s="24" t="s">
         <v>517</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>518</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
@@ -5889,15 +5931,15 @@
         <v>1</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>7</v>
@@ -5913,7 +5955,7 @@
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
@@ -5926,7 +5968,7 @@
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
@@ -5939,7 +5981,7 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="22"/>
@@ -5952,7 +5994,7 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
@@ -5965,7 +6007,7 @@
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
@@ -5976,10 +6018,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>7</v>
@@ -6014,7 +6056,7 @@
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
       <c r="C95" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
@@ -6022,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
@@ -6031,11 +6073,11 @@
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
       <c r="C96" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F96" s="28" t="s">
         <v>2</v>
@@ -6048,7 +6090,7 @@
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
       <c r="C97" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="30"/>
@@ -6056,7 +6098,7 @@
         <v>259</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H97" s="28"/>
       <c r="I97" s="26"/>
@@ -6065,42 +6107,42 @@
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
       <c r="C98" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D98" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>452</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>453</v>
       </c>
       <c r="F98" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H98" s="28"/>
       <c r="I98" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E99" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>456</v>
       </c>
       <c r="F99" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
@@ -6109,19 +6151,19 @@
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
       <c r="C100" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E100" s="29" t="s">
         <v>458</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>459</v>
       </c>
       <c r="F100" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
@@ -6130,19 +6172,19 @@
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
       <c r="C101" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E101" s="29" t="s">
         <v>461</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>462</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
@@ -6151,17 +6193,17 @@
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
       <c r="C102" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
@@ -6170,17 +6212,17 @@
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
       <c r="C103" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D103" s="28"/>
       <c r="E103" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="G103" s="29" t="s">
         <v>476</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="G103" s="29" t="s">
-        <v>477</v>
       </c>
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
@@ -6189,11 +6231,11 @@
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
       <c r="C104" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D104" s="28"/>
       <c r="E104" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>2</v>
@@ -6201,18 +6243,18 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
       <c r="C105" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D105" s="28"/>
       <c r="E105" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F105" s="23" t="s">
         <v>317</v>
@@ -6227,22 +6269,22 @@
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
       <c r="C106" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>480</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>481</v>
       </c>
       <c r="F106" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I106" s="29"/>
     </row>
@@ -6250,22 +6292,22 @@
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
       <c r="C107" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F107" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H107" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I107" s="29"/>
     </row>
@@ -6273,22 +6315,22 @@
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
       <c r="C108" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F108" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I108" s="29"/>
     </row>
@@ -6296,22 +6338,22 @@
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
       <c r="C109" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H109" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I109" s="29"/>
     </row>
@@ -6319,22 +6361,22 @@
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
       <c r="C110" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>486</v>
-      </c>
-      <c r="D110" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>487</v>
       </c>
       <c r="F110" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H110" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I110" s="29"/>
     </row>
@@ -6342,22 +6384,22 @@
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
       <c r="C111" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>488</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>489</v>
       </c>
       <c r="F111" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I111" s="29"/>
     </row>
@@ -6365,22 +6407,22 @@
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
       <c r="C112" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H112" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I112" s="29"/>
     </row>
@@ -6388,22 +6430,22 @@
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
       <c r="C113" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>492</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>493</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H113" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I113" s="29"/>
     </row>
@@ -6411,22 +6453,22 @@
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
       <c r="C114" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H114" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I114" s="29"/>
     </row>
@@ -6434,22 +6476,22 @@
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
       <c r="C115" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F115" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I115" s="29"/>
     </row>
@@ -6457,22 +6499,22 @@
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
       <c r="C116" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>498</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>499</v>
       </c>
       <c r="F116" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I116" s="29"/>
     </row>
@@ -6480,22 +6522,22 @@
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="C117" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E117" s="29" t="s">
         <v>500</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>501</v>
       </c>
       <c r="F117" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I117" s="29"/>
     </row>
@@ -6503,22 +6545,22 @@
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
       <c r="C118" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F118" s="29" t="s">
         <v>68</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I118" s="29"/>
     </row>
@@ -6526,22 +6568,22 @@
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
       <c r="C119" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>503</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>504</v>
       </c>
       <c r="F119" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H119" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I119" s="29"/>
     </row>
@@ -6549,22 +6591,22 @@
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
       <c r="C120" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>507</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>508</v>
       </c>
       <c r="F120" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I120" s="29"/>
     </row>
@@ -6572,31 +6614,31 @@
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
       <c r="C121" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E121" s="29" t="s">
         <v>509</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>510</v>
       </c>
       <c r="F121" s="29" t="s">
         <v>85</v>
       </c>
       <c r="G121" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I121" s="29"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>7</v>
@@ -6631,7 +6673,7 @@
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
       <c r="C124" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D124" s="26"/>
       <c r="E124" s="26"/>
@@ -6639,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
@@ -6648,17 +6690,17 @@
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
       <c r="C125" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F125" s="29" t="s">
         <v>85</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
@@ -6667,11 +6709,11 @@
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
       <c r="C126" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F126" s="23" t="s">
         <v>317</v>
@@ -6686,22 +6728,22 @@
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
       <c r="C127" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E127" s="29" t="s">
         <v>480</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>481</v>
       </c>
       <c r="F127" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I127" s="29"/>
     </row>
@@ -6709,22 +6751,22 @@
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F128" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H128" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I128" s="29"/>
     </row>
@@ -6732,22 +6774,22 @@
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F129" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G129" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I129" s="29"/>
     </row>
@@ -6755,22 +6797,22 @@
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F130" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I130" s="29"/>
     </row>
@@ -6778,22 +6820,22 @@
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F131" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H131" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I131" s="29"/>
     </row>
@@ -6801,22 +6843,22 @@
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
       <c r="C132" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F132" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H132" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I132" s="29"/>
     </row>
@@ -6824,19 +6866,19 @@
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F133" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H133" s="29"/>
       <c r="I133" s="29"/>
@@ -6845,17 +6887,17 @@
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
       <c r="C134" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F134" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H134" s="29"/>
       <c r="I134" s="29"/>
@@ -6864,13 +6906,13 @@
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
       <c r="C135" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F135" s="29" t="s">
         <v>2</v>
@@ -6883,13 +6925,13 @@
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F136" s="29" t="s">
         <v>2</v>
@@ -6902,19 +6944,19 @@
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F137" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G137" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="29"/>
@@ -6923,11 +6965,11 @@
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F138" s="29" t="s">
         <v>2</v>
@@ -6940,17 +6982,17 @@
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
       <c r="C139" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F139" s="29" t="s">
         <v>85</v>
       </c>
       <c r="G139" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
@@ -6963,13 +7005,13 @@
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F140" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
@@ -6982,13 +7024,13 @@
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F141" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
@@ -7001,13 +7043,13 @@
       </c>
       <c r="D142" s="29"/>
       <c r="E142" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F142" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -7020,7 +7062,7 @@
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F143" s="29" t="s">
         <v>11</v>
@@ -7040,13 +7082,13 @@
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F144" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H144" s="29"/>
       <c r="I144" s="29"/>
@@ -7070,10 +7112,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>7</v>
@@ -7108,7 +7150,7 @@
       <c r="A148" s="26"/>
       <c r="B148" s="26"/>
       <c r="C148" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
@@ -7116,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H148" s="26"/>
       <c r="I148" s="26"/>
@@ -7125,12 +7167,12 @@
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28"/>
       <c r="F149" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
@@ -7138,10 +7180,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C150" s="26" t="s">
         <v>7</v>
@@ -7158,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -7180,7 +7222,7 @@
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
@@ -7188,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H152" s="26"/>
       <c r="I152" s="26"/>
@@ -7197,7 +7239,7 @@
       <c r="A153" s="26"/>
       <c r="B153" s="26"/>
       <c r="C153" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
@@ -7205,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H153" s="26"/>
       <c r="I153" s="26"/>
@@ -7214,12 +7256,12 @@
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28"/>
       <c r="F154" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
@@ -7242,23 +7284,23 @@
     </row>
     <row r="156" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F156" s="29" t="s">
         <v>85</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
@@ -7267,11 +7309,11 @@
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F157" s="23" t="s">
         <v>317</v>
@@ -7286,19 +7328,19 @@
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E158" s="29" t="s">
         <v>480</v>
-      </c>
-      <c r="D158" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>481</v>
       </c>
       <c r="F158" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
@@ -7307,19 +7349,19 @@
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F159" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
@@ -7328,19 +7370,19 @@
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D160" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F160" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
@@ -7349,540 +7391,540 @@
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F161" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B162" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="C162" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F162" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="C162" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="D162" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E162" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F162" s="32" t="s">
+      <c r="G162" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H162" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I162" s="32" t="s">
         <v>558</v>
-      </c>
-      <c r="G162" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H162" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I162" s="32" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="30"/>
       <c r="B163" s="30"/>
       <c r="C163" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="D163" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E163" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F163" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="D163" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E163" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F163" s="32" t="s">
+      <c r="G163" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H163" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I163" s="32" t="s">
         <v>561</v>
-      </c>
-      <c r="G163" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H163" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I163" s="32" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="30"/>
       <c r="B164" s="30"/>
       <c r="C164" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E164" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F164" s="32" t="s">
         <v>563</v>
       </c>
-      <c r="D164" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E164" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F164" s="32" t="s">
+      <c r="G164" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H164" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="G164" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H164" s="32" t="s">
-        <v>565</v>
-      </c>
       <c r="I164" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="30"/>
       <c r="B165" s="30"/>
       <c r="C165" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E165" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F165" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="D165" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E165" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F165" s="32" t="s">
-        <v>567</v>
-      </c>
       <c r="G165" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H165" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I165" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="30"/>
       <c r="B166" s="30"/>
       <c r="C166" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="D166" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E166" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F166" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="D166" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E166" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F166" s="32" t="s">
+      <c r="G166" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="G166" s="32" t="s">
+      <c r="H166" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I166" s="32" t="s">
         <v>570</v>
-      </c>
-      <c r="H166" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I166" s="32" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="30"/>
       <c r="B167" s="30"/>
       <c r="C167" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D167" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E167" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F167" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="D167" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E167" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F167" s="32" t="s">
+      <c r="G167" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H167" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I167" s="32" t="s">
         <v>573</v>
-      </c>
-      <c r="G167" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H167" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I167" s="32" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="30"/>
       <c r="B168" s="30"/>
       <c r="C168" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D168" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F168" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="D168" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E168" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F168" s="32" t="s">
+      <c r="G168" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H168" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="G168" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H168" s="32" t="s">
+      <c r="I168" s="32" t="s">
         <v>577</v>
-      </c>
-      <c r="I168" s="32" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="30"/>
       <c r="B169" s="30"/>
       <c r="C169" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="D169" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F169" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="D169" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E169" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F169" s="32" t="s">
+      <c r="G169" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="G169" s="32" t="s">
+      <c r="H169" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I169" s="32" t="s">
         <v>581</v>
-      </c>
-      <c r="H169" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I169" s="32" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="30"/>
       <c r="B170" s="30"/>
       <c r="C170" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E170" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F170" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="D170" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E170" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F170" s="32" t="s">
+      <c r="G170" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="G170" s="32" t="s">
+      <c r="H170" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I170" s="32" t="s">
         <v>585</v>
-      </c>
-      <c r="H170" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I170" s="32" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="30"/>
       <c r="B171" s="30"/>
       <c r="C171" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="D171" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F171" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="D171" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E171" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F171" s="32" t="s">
+      <c r="G171" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H171" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="G171" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H171" s="32" t="s">
+      <c r="I171" s="32" t="s">
         <v>589</v>
-      </c>
-      <c r="I171" s="32" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="30"/>
       <c r="B172" s="30"/>
       <c r="C172" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D172" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F172" s="32" t="s">
         <v>591</v>
       </c>
-      <c r="D172" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E172" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F172" s="32" t="s">
+      <c r="G172" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H172" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="G172" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H172" s="32" t="s">
+      <c r="I172" s="32" t="s">
         <v>593</v>
-      </c>
-      <c r="I172" s="32" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="30"/>
       <c r="B173" s="30"/>
       <c r="C173" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F173" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="D173" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E173" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F173" s="32" t="s">
-        <v>596</v>
-      </c>
       <c r="G173" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H173" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I173" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="30"/>
       <c r="B174" s="30"/>
       <c r="C174" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="D174" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F174" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="D174" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E174" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F174" s="32" t="s">
-        <v>598</v>
-      </c>
       <c r="G174" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H174" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I174" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="30"/>
       <c r="B175" s="30"/>
       <c r="C175" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F175" s="32" t="s">
         <v>23</v>
       </c>
       <c r="G175" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="H175" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I175" s="32" t="s">
         <v>600</v>
-      </c>
-      <c r="H175" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I175" s="32" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="30"/>
       <c r="B176" s="30"/>
       <c r="C176" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D176" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F176" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="D176" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E176" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F176" s="32" t="s">
+      <c r="G176" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H176" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="I176" s="32" t="s">
         <v>603</v>
-      </c>
-      <c r="G176" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="H176" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="I176" s="32" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="30"/>
       <c r="B177" s="30"/>
       <c r="C177" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="D177" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F177" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="D177" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E177" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F177" s="32" t="s">
-        <v>606</v>
-      </c>
       <c r="G177" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H177" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I177" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="30"/>
       <c r="B178" s="30"/>
       <c r="C178" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="D178" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E178" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F178" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="D178" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E178" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F178" s="32" t="s">
+      <c r="G178" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="G178" s="32" t="s">
-        <v>609</v>
-      </c>
       <c r="H178" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I178" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="30"/>
       <c r="B179" s="30"/>
       <c r="C179" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D179" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F179" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="D179" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E179" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F179" s="32" t="s">
-        <v>611</v>
-      </c>
       <c r="G179" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H179" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I179" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="30"/>
       <c r="B180" s="30"/>
       <c r="C180" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="D180" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F180" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="D180" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E180" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F180" s="32" t="s">
-        <v>613</v>
-      </c>
       <c r="G180" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H180" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I180" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F181" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B182" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E182" s="13" t="s">
         <v>616</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>617</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>2</v>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="629">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1904,6 +1904,12 @@
   </si>
   <si>
     <t>{knownDefect=PHIX-28031}</t>
+  </si>
+  <si>
+    <t>Automation.Test.Case.001</t>
+  </si>
+  <si>
+    <t>Test Case to verify coverage via Automation</t>
   </si>
 </sst>
 </file>
@@ -2208,14 +2214,70 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Inidividual3.1"/>
+      <sheetName val="sso"/>
+      <sheetName val="methods"/>
+      <sheetName val="WIP"/>
+      <sheetName val="WIC_Methods"/>
+      <sheetName val="WIC_Enrollment"/>
+      <sheetName val="UserStory"/>
+      <sheetName val="Sonal-BUC"/>
+      <sheetName val="ShortTerm"/>
+      <sheetName val="Saumya-End to end workflows"/>
+      <sheetName val="Sanity"/>
+      <sheetName val="SEP"/>
+      <sheetName val="Regression"/>
+      <sheetName val="Rating"/>
+      <sheetName val="Pooja"/>
+      <sheetName val="Plan_Filters"/>
+      <sheetName val="Paras"/>
+      <sheetName val="Niket"/>
+      <sheetName val="New_BUC"/>
+      <sheetName val="Individual-7503"/>
+      <sheetName val="Flex"/>
+      <sheetName val="Devendra"/>
+      <sheetName val="DE"/>
+      <sheetName val="CP_Niket"/>
+      <sheetName val="BUC"/>
+      <sheetName val="Ashutosh"/>
+      <sheetName val="Anil"/>
+      <sheetName val="27358"/>
       <sheetName val="Sheet1"/>
       <sheetName val="$automationKeywords$"/>
       <sheetName val="$plugin$"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2508,12 +2570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2534,7 +2595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
@@ -2545,7 +2606,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>269</v>
       </c>
@@ -2556,7 +2617,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
@@ -2567,7 +2628,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>134</v>
       </c>
@@ -2578,7 +2639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>138</v>
       </c>
@@ -2589,7 +2650,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>142</v>
       </c>
@@ -2600,7 +2661,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>148</v>
       </c>
@@ -2611,7 +2672,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>144</v>
       </c>
@@ -2622,7 +2683,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>146</v>
       </c>
@@ -2655,7 +2716,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>156</v>
       </c>
@@ -2666,7 +2727,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>154</v>
       </c>
@@ -2677,7 +2738,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>158</v>
       </c>
@@ -2688,7 +2749,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -2699,7 +2760,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
@@ -2710,7 +2771,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>140</v>
       </c>
@@ -2721,7 +2782,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>162</v>
       </c>
@@ -2732,7 +2793,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>160</v>
       </c>
@@ -2743,7 +2804,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>176</v>
       </c>
@@ -2754,7 +2815,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>164</v>
       </c>
@@ -2776,7 +2837,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>174</v>
       </c>
@@ -2798,7 +2859,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>170</v>
       </c>
@@ -2809,7 +2870,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>172</v>
       </c>
@@ -2820,7 +2881,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -2831,7 +2892,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>267</v>
       </c>
@@ -2842,7 +2903,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>303</v>
       </c>
@@ -2853,7 +2914,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>84</v>
       </c>
@@ -2884,7 +2945,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -2895,7 +2956,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2967,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>338</v>
       </c>
@@ -2917,7 +2978,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>181</v>
       </c>
@@ -2928,7 +2989,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
@@ -2939,7 +3000,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>271</v>
       </c>
@@ -2950,7 +3011,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>273</v>
       </c>
@@ -2972,7 +3033,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>348</v>
       </c>
@@ -2983,7 +3044,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>326</v>
       </c>
@@ -2994,7 +3055,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>277</v>
       </c>
@@ -3005,7 +3066,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>262</v>
       </c>
@@ -3016,7 +3077,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>328</v>
       </c>
@@ -3027,7 +3088,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>183</v>
       </c>
@@ -3038,7 +3099,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>352</v>
       </c>
@@ -3049,7 +3110,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>354</v>
       </c>
@@ -3060,7 +3121,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>350</v>
       </c>
@@ -3071,7 +3132,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>357</v>
       </c>
@@ -3082,7 +3143,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>356</v>
       </c>
@@ -3093,7 +3154,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>358</v>
       </c>
@@ -3115,7 +3176,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>342</v>
       </c>
@@ -3126,7 +3187,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>187</v>
       </c>
@@ -3137,7 +3198,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>189</v>
       </c>
@@ -3148,7 +3209,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>279</v>
       </c>
@@ -3159,7 +3220,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>281</v>
       </c>
@@ -3181,7 +3242,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>193</v>
       </c>
@@ -3192,7 +3253,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>380</v>
       </c>
@@ -3203,7 +3264,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>359</v>
       </c>
@@ -3214,7 +3275,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
@@ -3225,7 +3286,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>309</v>
       </c>
@@ -3236,7 +3297,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>311</v>
       </c>
@@ -3247,7 +3308,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>196</v>
       </c>
@@ -3269,7 +3330,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>283</v>
       </c>
@@ -3280,7 +3341,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>82</v>
       </c>
@@ -3291,7 +3352,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>81</v>
       </c>
@@ -3302,7 +3363,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>80</v>
       </c>
@@ -3313,7 +3374,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>361</v>
       </c>
@@ -3324,7 +3385,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>65</v>
       </c>
@@ -3335,7 +3396,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>65</v>
       </c>
@@ -3346,7 +3407,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>313</v>
       </c>
@@ -3357,7 +3418,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>315</v>
       </c>
@@ -3368,7 +3429,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>317</v>
       </c>
@@ -3379,7 +3440,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1</v>
       </c>
@@ -3390,7 +3451,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>201</v>
       </c>
@@ -3401,7 +3462,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>203</v>
       </c>
@@ -3412,7 +3473,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>4</v>
       </c>
@@ -3423,7 +3484,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>205</v>
       </c>
@@ -3434,7 +3495,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>285</v>
       </c>
@@ -3445,7 +3506,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3517,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>23</v>
       </c>
@@ -3467,7 +3528,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>307</v>
       </c>
@@ -3478,7 +3539,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>223</v>
       </c>
@@ -3489,7 +3550,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>363</v>
       </c>
@@ -3500,7 +3561,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>287</v>
       </c>
@@ -3511,7 +3572,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>372</v>
       </c>
@@ -3522,7 +3583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>374</v>
       </c>
@@ -3533,7 +3594,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>330</v>
       </c>
@@ -3544,7 +3605,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>208</v>
       </c>
@@ -3555,7 +3616,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>289</v>
       </c>
@@ -3566,7 +3627,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>291</v>
       </c>
@@ -3577,7 +3638,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>365</v>
       </c>
@@ -3588,7 +3649,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>367</v>
       </c>
@@ -3599,7 +3660,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>368</v>
       </c>
@@ -3610,7 +3671,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>370</v>
       </c>
@@ -3621,7 +3682,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>256</v>
       </c>
@@ -3632,7 +3693,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>258</v>
       </c>
@@ -3643,7 +3704,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>83</v>
       </c>
@@ -3654,7 +3715,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>210</v>
       </c>
@@ -3665,7 +3726,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>212</v>
       </c>
@@ -3676,7 +3737,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>253</v>
       </c>
@@ -3687,7 +3748,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>255</v>
       </c>
@@ -3698,7 +3759,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>259</v>
       </c>
@@ -3709,7 +3770,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>261</v>
       </c>
@@ -3720,7 +3781,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>301</v>
       </c>
@@ -3731,7 +3792,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>299</v>
       </c>
@@ -3742,7 +3803,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>305</v>
       </c>
@@ -3753,7 +3814,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>319</v>
       </c>
@@ -3775,7 +3836,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>86</v>
       </c>
@@ -3786,7 +3847,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>215</v>
       </c>
@@ -3797,7 +3858,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>217</v>
       </c>
@@ -3808,7 +3869,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>219</v>
       </c>
@@ -3819,7 +3880,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>22</v>
       </c>
@@ -3830,7 +3891,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>79</v>
       </c>
@@ -3841,7 +3902,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>59</v>
       </c>
@@ -3852,7 +3913,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>225</v>
       </c>
@@ -3863,7 +3924,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>227</v>
       </c>
@@ -3874,7 +3935,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -3885,7 +3946,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>230</v>
       </c>
@@ -3896,7 +3957,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>232</v>
       </c>
@@ -3907,7 +3968,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>234</v>
       </c>
@@ -3918,7 +3979,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>96</v>
       </c>
@@ -3929,7 +3990,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>293</v>
       </c>
@@ -3940,7 +4001,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>295</v>
       </c>
@@ -3951,7 +4012,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>378</v>
       </c>
@@ -3962,7 +4023,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>332</v>
       </c>
@@ -3973,7 +4034,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>236</v>
       </c>
@@ -3984,7 +4045,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>344</v>
       </c>
@@ -3995,7 +4056,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>238</v>
       </c>
@@ -4006,7 +4067,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>240</v>
       </c>
@@ -4017,7 +4078,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>242</v>
       </c>
@@ -4028,7 +4089,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>324</v>
       </c>
@@ -4039,7 +4100,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>322</v>
       </c>
@@ -4050,7 +4111,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>93</v>
       </c>
@@ -4070,7 +4131,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>264</v>
       </c>
@@ -4081,7 +4142,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>266</v>
       </c>
@@ -4092,7 +4153,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>334</v>
       </c>
@@ -4114,7 +4175,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>336</v>
       </c>
@@ -4125,7 +4186,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>85</v>
       </c>
@@ -4136,7 +4197,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>297</v>
       </c>
@@ -4147,7 +4208,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>251</v>
       </c>
@@ -4158,7 +4219,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>245</v>
       </c>
@@ -4169,7 +4230,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>247</v>
       </c>
@@ -4180,7 +4241,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>376</v>
       </c>
@@ -4203,13 +4264,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C153">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="TODO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:B168">
     <sortCondition ref="A2:A168"/>
   </sortState>
@@ -4341,11 +4395,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7929,6 +7983,147 @@
       <c r="F182" s="13" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C184" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C185" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C186" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C187" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C188" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C189" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C190" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C191" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7956,9 +8151,10 @@
     <hyperlink ref="G148" r:id="rId22"/>
     <hyperlink ref="G152" r:id="rId23"/>
     <hyperlink ref="G153" r:id="rId24"/>
+    <hyperlink ref="G184" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -2572,9 +2572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4397,7 +4397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$154</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="638">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1910,6 +1910,33 @@
   </si>
   <si>
     <t>Test Case to verify coverage via Automation</t>
+  </si>
+  <si>
+    <t>Get Alert Text</t>
+  </si>
+  <si>
+    <t>Test.Case.1000</t>
+  </si>
+  <si>
+    <t>http://www.javascripter.net/faq/alert.htm</t>
+  </si>
+  <si>
+    <t>xpath=//input[@value='Try it now']</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>This is not currently handled by PHIX Project. We are directly sending files</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>assertAll</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2133,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2189,6 +2216,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -2214,7 +2260,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Inidividual3.1"/>
       <sheetName val="sso"/>
       <sheetName val="methods"/>
       <sheetName val="WIP"/>
@@ -2275,9 +2320,8 @@
       <sheetData sheetId="25" refreshError="1"/>
       <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2570,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2581,1686 +2625,2159 @@
   <cols>
     <col min="1" max="1" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="68" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="37" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="D2" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C4" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="C9" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C10" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="C11" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B12" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C12" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="D12" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B13" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C13" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="C14" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="C15" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="C17" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="C18" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="C19" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="C20" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="C21" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="C22" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="C23" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B24" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="C25" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B26" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="D26" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C27" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="D29" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="C30" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="C31" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="D32" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B33" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C33" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="D33" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="D34" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="D35" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="D36" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="C37" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="C38" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="D39" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="C40" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="C41" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B42" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C42" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="D42" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="C43" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="C44" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="C45" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="C46" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="C47" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="C48" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="C49" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="C50" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="C51" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="C52" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="C53" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="C54" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B55" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C55" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="D55" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="C56" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="C57" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="C58" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="C59" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+      <c r="C60" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B61" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C61" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="D61" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="C62" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="C63" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B64" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="C64" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="D65" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="C66" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="C67" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="C68" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B69" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C69" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="D69" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="C70" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="D71" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="D72" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="D73" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="C74" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="D75" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="C76" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="C77" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B78" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="C78" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="D79" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="D80" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="C81" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="C82" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="D83" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B84" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="C84" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="C85" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="D86" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="D87" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B88" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="C88" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B89" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="C89" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B90" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="C90" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B91" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="C91" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B92" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="C92" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="C93" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="C94" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="C95" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B96" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="C96" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="C97" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C98" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="C100" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B101" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="C101" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="C102" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C104" s="41" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="D104" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B105" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="C105" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B106" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="C106" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="C107" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B109" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C109" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="D109" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B110" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="C110" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B111" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="C111" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B112" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="C112" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B113" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="C113" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B114" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="35" t="s">
+      <c r="C114" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B115" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C115" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="D115" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="D116" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B117" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="C117" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B118" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="C118" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B119" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="C119" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B120" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C120" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="D120" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B121" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C121" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="D121" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B122" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C122" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="D122" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B123" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="C123" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B124" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+      <c r="C124" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B125" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C125" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+      <c r="D125" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B126" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C125" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="C126" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B127" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C126" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="C127" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B128" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="C128" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B129" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C129" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="D129" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="C130" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B131" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="C131" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B132" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+      <c r="C132" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="C133" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="C134" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="C135" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B136" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+      <c r="C136" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="C137" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B138" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="C138" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B139" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="C139" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B140" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="C140" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B141" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C141" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="35" t="s">
+      <c r="D141" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35" t="s">
+      <c r="B142" s="35"/>
+      <c r="C142" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="D142" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C143" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C143" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="35" t="s">
+      <c r="C145" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B146" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C146" s="39" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+      <c r="D146" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B147" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
+      <c r="C147" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C148" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+      <c r="D148" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B149" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
+      <c r="C149" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B150" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C150" s="38" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+      <c r="D150" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B151" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+      <c r="C151" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B152" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+      <c r="C152" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B153" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="35" t="s">
+      <c r="C153" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="B153" s="35" t="s">
+      <c r="B154" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C154" s="39" t="s">
         <v>621</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4395,10 +4912,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8124,6 +8641,55 @@
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
+    </row>
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G192" s="14"/>
+    </row>
+    <row r="193" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C193" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G193" s="36" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C194" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C195" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8152,9 +8718,10 @@
     <hyperlink ref="G152" r:id="rId23"/>
     <hyperlink ref="G153" r:id="rId24"/>
     <hyperlink ref="G184" r:id="rId25"/>
+    <hyperlink ref="G193" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="639">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1937,6 +1937,9 @@
   </si>
   <si>
     <t>{normalize}</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2517,7 @@
   <cols>
     <col min="1" max="1" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="3" max="3" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -2541,7 +2544,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>401</v>
+        <v>638</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>633</v>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$154</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1915,12 +1915,6 @@
     <t>Test.Case.1000</t>
   </si>
   <si>
-    <t>http://www.javascripter.net/faq/alert.htm</t>
-  </si>
-  <si>
-    <t>xpath=//input[@value='Try it now']</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -1940,13 +1934,19 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>file:///C:/Selenium/Raftaar/html/alerts.html</t>
+  </si>
+  <si>
+    <t>xpath=//button[@onclick='alertFunction()']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2012,6 +2012,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2072,13 +2101,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,30 +2124,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2128,10 +2139,33 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2152,68 +2186,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="sso"/>
-      <sheetName val="methods"/>
-      <sheetName val="WIP"/>
-      <sheetName val="WIC_Methods"/>
-      <sheetName val="WIC_Enrollment"/>
-      <sheetName val="UserStory"/>
-      <sheetName val="Sonal-BUC"/>
-      <sheetName val="ShortTerm"/>
-      <sheetName val="Saumya-End to end workflows"/>
-      <sheetName val="Sanity"/>
-      <sheetName val="SEP"/>
-      <sheetName val="Regression"/>
-      <sheetName val="Rating"/>
-      <sheetName val="Pooja"/>
-      <sheetName val="Plan_Filters"/>
-      <sheetName val="Paras"/>
-      <sheetName val="Niket"/>
-      <sheetName val="New_BUC"/>
-      <sheetName val="Individual-7503"/>
-      <sheetName val="Flex"/>
-      <sheetName val="Devendra"/>
-      <sheetName val="DE"/>
-      <sheetName val="CP_Niket"/>
-      <sheetName val="BUC"/>
-      <sheetName val="Ashutosh"/>
-      <sheetName val="Anil"/>
-      <sheetName val="27358"/>
       <sheetName val="Sheet1"/>
       <sheetName val="$automationKeywords$"/>
       <sheetName val="$plugin$"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2517,7 +2497,7 @@
   <cols>
     <col min="1" max="1" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -2529,2095 +2509,2095 @@
       <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>400</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>179</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="D4" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D5" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="D28" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="C30" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="C31" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="13" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="D33" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="D34" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="C37" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="D38" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="D40" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="C41" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="D42" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="D43" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="C44" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="D45" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="D46" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="D47" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="C48" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="C49" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="C50" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="C51" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="C52" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="C53" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="C54" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="D55" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="C56" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="D57" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="D58" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="C59" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="C60" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="D61" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="C62" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="C63" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="C64" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="13" t="s">
         <v>195</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="C66" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="C67" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="D68" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="D69" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="C70" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="C74" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="D76" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="D77" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="D78" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="13" t="s">
         <v>318</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="D81" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="D82" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="D84" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="C85" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="20" t="s">
         <v>207</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="C88" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="D89" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="C90" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="D91" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="C92" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="C93" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="D94" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="D95" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D96" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="D96" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="D97" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="D98" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C99" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="C99" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="D100" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="C101" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="C102" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="C103" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="C105" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="C106" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D107" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="D107" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="C108" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="13" t="s">
         <v>445</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="C110" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="C111" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="C112" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C113" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="C113" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="D114" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="D115" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="13" t="s">
         <v>214</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="D116" s="13"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="C117" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="C118" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D119" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+      <c r="D119" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="D120" s="13"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="13" t="s">
         <v>222</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="D121" s="13"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="D122" s="13"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="C123" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C124" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="C124" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="13" t="s">
         <v>229</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="D125" s="13"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D126" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="D126" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C127" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="C127" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
+      <c r="C128" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="13" t="s">
         <v>321</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="D129" s="13"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D130" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+      <c r="D130" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D131" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="D131" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C132" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="C132" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C133" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+      <c r="C133" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D134" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+      <c r="D134" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D135" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+      <c r="D135" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D136" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="D136" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="C137" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+      <c r="C138" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="C139" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="C140" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="13" t="s">
         <v>244</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D141" s="7"/>
-    </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+      <c r="D141" s="13"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="15" t="s">
+      <c r="B142" s="15"/>
+      <c r="C142" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D142" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="D142" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C143" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="C143" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C144" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+      <c r="C144" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C145" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="C145" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D146" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="D146" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C147" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="C147" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="7"/>
-    </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
+      <c r="D148" s="13"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D149" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+      <c r="D149" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="13" t="s">
         <v>252</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D150" s="7"/>
-    </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+      <c r="D150" s="13"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C151" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+      <c r="C151" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C152" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="C152" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C153" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="C153" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D154" s="12" t="s">
-        <v>634</v>
+      <c r="D154" s="15" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -4646,33 +4626,33 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>637</v>
+      <c r="A7" s="11" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4729,25 +4709,25 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
   </sheetData>
@@ -4762,7 +4742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4809,3773 +4789,3773 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>30</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>1000</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>5</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="7">
         <v>1</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="7">
         <v>5</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="7">
         <v>1</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="7">
         <v>18017</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="7">
         <v>18017</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="7">
         <v>30</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11" t="s">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11" t="s">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="7">
         <v>1</v>
       </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11" t="s">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11" t="s">
+      <c r="H76" s="7"/>
+      <c r="I76" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11" t="s">
+      <c r="H77" s="7"/>
+      <c r="I77" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11" t="s">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7">
         <v>1</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11" t="s">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11" t="s">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11" t="s">
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11" t="s">
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11" t="s">
+      <c r="H98" s="7"/>
+      <c r="I98" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G99" s="11" t="s">
+      <c r="G99" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E100" s="11" t="s">
+      <c r="D100" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E101" s="11" t="s">
+      <c r="D101" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11" t="s">
+      <c r="D102" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
+      <c r="D103" s="7"/>
+      <c r="E103" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
+      <c r="D104" s="7"/>
+      <c r="E104" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11" t="s">
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="7">
         <v>7</v>
       </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E106" s="11" t="s">
+      <c r="D106" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H106" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I106" s="11"/>
+      <c r="H106" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E107" s="11" t="s">
+      <c r="D107" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I107" s="11"/>
+      <c r="H107" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E108" s="11" t="s">
+      <c r="D108" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H108" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I108" s="11"/>
+      <c r="H108" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11" t="s">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E109" s="11" t="s">
+      <c r="D109" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E109" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I109" s="11"/>
+      <c r="H109" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I109" s="7"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11" t="s">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E110" s="11" t="s">
+      <c r="D110" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G110" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I110" s="11"/>
+      <c r="G110" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I110" s="7"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E111" s="11" t="s">
+      <c r="D111" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E111" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I111" s="11"/>
+      <c r="G111" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I111" s="7"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E112" s="11" t="s">
+      <c r="D112" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G112" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I112" s="11"/>
+      <c r="H112" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I112" s="7"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E113" s="11" t="s">
+      <c r="D113" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G113" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="H113" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I113" s="11"/>
+      <c r="H113" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I113" s="7"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E114" s="11" t="s">
+      <c r="D114" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="11" t="s">
+      <c r="G114" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I114" s="11"/>
+      <c r="H114" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I114" s="7"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E115" s="11" t="s">
+      <c r="D115" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G115" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I115" s="11"/>
+      <c r="H115" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I115" s="7"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E116" s="11" t="s">
+      <c r="D116" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G116" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I116" s="11"/>
+      <c r="G116" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E117" s="11" t="s">
+      <c r="D117" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G117" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I117" s="11"/>
+      <c r="G117" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I117" s="7"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E118" s="11" t="s">
+      <c r="D118" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I118" s="11"/>
+      <c r="H118" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E119" s="11" t="s">
+      <c r="D119" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I119" s="11"/>
+      <c r="H119" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I119" s="7"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E120" s="11" t="s">
+      <c r="D120" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I120" s="11"/>
+      <c r="G120" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E121" s="11" t="s">
+      <c r="D121" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I121" s="11"/>
+      <c r="H121" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I121" s="7"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11" t="s">
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11" t="s">
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="G124" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
+      <c r="D125" s="7"/>
+      <c r="E125" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11" t="s">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
+      <c r="D126" s="7"/>
+      <c r="E126" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="F126" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126" s="7">
         <v>7</v>
       </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E127" s="11" t="s">
+      <c r="D127" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G127" s="11" t="s">
+      <c r="G127" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I127" s="11"/>
+      <c r="H127" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I127" s="7"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E128" s="11" t="s">
+      <c r="D128" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E128" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="G128" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I128" s="11"/>
+      <c r="H128" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I128" s="7"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E129" s="11" t="s">
+      <c r="D129" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="11" t="s">
+      <c r="G129" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H129" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I129" s="11"/>
+      <c r="H129" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I129" s="7"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E130" s="11" t="s">
+      <c r="D130" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E130" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I130" s="11"/>
+      <c r="H130" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I130" s="7"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E131" s="11" t="s">
+      <c r="D131" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E131" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G131" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I131" s="11"/>
+      <c r="G131" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I131" s="7"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11" t="s">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E132" s="11" t="s">
+      <c r="D132" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G132" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I132" s="11"/>
+      <c r="G132" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I132" s="7"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E133" s="11" t="s">
+      <c r="D133" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11" t="s">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
+      <c r="D134" s="7"/>
+      <c r="E134" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="F134" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11" t="s">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E135" s="11" t="s">
+      <c r="D135" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F135" s="11" t="s">
+      <c r="F135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11" t="s">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E136" s="11" t="s">
+      <c r="D136" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11" t="s">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E137" s="11" t="s">
+      <c r="D137" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G137" s="11" t="s">
+      <c r="G137" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11" t="s">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
+      <c r="D138" s="7"/>
+      <c r="E138" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11" t="s">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
+      <c r="D139" s="7"/>
+      <c r="E139" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F139" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G139" s="11" t="s">
+      <c r="G139" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11" t="s">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
+      <c r="D140" s="7"/>
+      <c r="E140" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G140" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11" t="s">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11" t="s">
+      <c r="D141" s="7"/>
+      <c r="E141" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F141" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G141" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11" t="s">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
+      <c r="D142" s="7"/>
+      <c r="E142" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="F142" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G142" s="11" t="s">
+      <c r="G142" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11" t="s">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11" t="s">
+      <c r="D143" s="7"/>
+      <c r="E143" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G143" s="11" t="str">
+      <c r="G143" s="7" t="str">
         <f>CONCATENATE("employee","RANDBETWEEN(10000,999999)","@me.org")</f>
         <v>employeeRANDBETWEEN(10000,999999)@me.org</v>
       </c>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11" t="s">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
+      <c r="D144" s="7"/>
+      <c r="E144" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="G144" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11" t="s">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11" t="s">
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="7">
         <v>30</v>
       </c>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11" t="s">
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G146" s="11" t="s">
+      <c r="G146" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11" t="s">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11" t="s">
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11" t="s">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="G148" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11" t="s">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11" t="s">
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11" t="s">
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G150" s="11" t="s">
+      <c r="G150" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H150" s="11">
+      <c r="H150" s="7">
         <v>3</v>
       </c>
-      <c r="I150" s="11" t="s">
+      <c r="I150" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11" t="s">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11" t="s">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11" t="s">
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11" t="s">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11" t="s">
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11" t="s">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11" t="s">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11" t="s">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11" t="s">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11" t="s">
+      <c r="D156" s="7"/>
+      <c r="E156" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F156" s="11" t="s">
+      <c r="F156" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G156" s="11" t="s">
+      <c r="G156" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11" t="s">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
+      <c r="D157" s="7"/>
+      <c r="E157" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F157" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G157" s="11">
+      <c r="G157" s="7">
         <v>7</v>
       </c>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11" t="s">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="D158" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E158" s="11" t="s">
+      <c r="D158" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="F158" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="G158" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11" t="s">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E159" s="11" t="s">
+      <c r="D159" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E159" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F159" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G159" s="11" t="s">
+      <c r="G159" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11" t="s">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D160" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E160" s="11" t="s">
+      <c r="D160" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E160" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G160" s="11" t="s">
+      <c r="G160" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11" t="s">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E161" s="11" t="s">
+      <c r="D161" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F161" s="11" t="s">
+      <c r="F161" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="G161" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D162" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F162" s="11" t="s">
+      <c r="D162" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F162" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G162" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I162" s="11" t="s">
+      <c r="G162" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I162" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11" t="s">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="D163" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F163" s="11" t="s">
+      <c r="D163" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G163" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I163" s="11" t="s">
+      <c r="G163" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I163" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11" t="s">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="D164" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F164" s="11" t="s">
+      <c r="D164" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F164" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="G164" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H164" s="11" t="s">
+      <c r="G164" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H164" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="I164" s="11" t="s">
+      <c r="I164" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11" t="s">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="D165" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F165" s="11" t="s">
+      <c r="D165" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F165" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G165" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I165" s="11" t="s">
+      <c r="G165" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I165" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11" t="s">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D166" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F166" s="11" t="s">
+      <c r="D166" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F166" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="G166" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="H166" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I166" s="11" t="s">
+      <c r="H166" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I166" s="7" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11" t="s">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F167" s="11" t="s">
+      <c r="D167" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="G167" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I167" s="11" t="s">
+      <c r="G167" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I167" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11" t="s">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D168" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F168" s="11" t="s">
+      <c r="D168" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F168" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G168" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H168" s="11" t="s">
+      <c r="G168" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H168" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="I168" s="11" t="s">
+      <c r="I168" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11" t="s">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="D169" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F169" s="11" t="s">
+      <c r="D169" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F169" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="G169" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="H169" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I169" s="11" t="s">
+      <c r="H169" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I169" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11" t="s">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="D170" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F170" s="11" t="s">
+      <c r="D170" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F170" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G170" s="11" t="s">
+      <c r="G170" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="H170" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I170" s="11" t="s">
+      <c r="H170" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I170" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11" t="s">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="D171" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F171" s="11" t="s">
+      <c r="D171" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G171" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H171" s="11" t="s">
+      <c r="G171" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H171" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="I171" s="11" t="s">
+      <c r="I171" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11" t="s">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="D172" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F172" s="11" t="s">
+      <c r="D172" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F172" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="G172" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H172" s="11" t="s">
+      <c r="G172" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H172" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="I172" s="11" t="s">
+      <c r="I172" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11" t="s">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="D173" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F173" s="11" t="s">
+      <c r="D173" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F173" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="G173" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I173" s="11" t="s">
+      <c r="G173" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I173" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11" t="s">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="D174" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" s="11" t="s">
+      <c r="D174" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G174" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I174" s="11" t="s">
+      <c r="G174" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I174" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11" t="s">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="D175" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F175" s="11" t="s">
+      <c r="D175" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G175" s="11" t="s">
+      <c r="G175" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="H175" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I175" s="11" t="s">
+      <c r="H175" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I175" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11" t="s">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="D176" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F176" s="11" t="s">
+      <c r="D176" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G176" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I176" s="11" t="s">
+      <c r="G176" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I176" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11" t="s">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F177" s="11" t="s">
+      <c r="D177" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="G177" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I177" s="11" t="s">
+      <c r="G177" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I177" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11" t="s">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="D178" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F178" s="11" t="s">
+      <c r="D178" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G178" s="11" t="s">
+      <c r="G178" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="H178" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I178" s="11" t="s">
+      <c r="H178" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I178" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11" t="s">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D179" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F179" s="11" t="s">
+      <c r="D179" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="G179" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H179" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I179" s="11" t="s">
+      <c r="G179" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I179" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11" t="s">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F180" s="11" t="s">
+      <c r="D180" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F180" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="G180" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H180" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I180" s="11" t="s">
+      <c r="G180" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I180" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D181" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F181" s="11" t="s">
+      <c r="D181" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F181" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G181" s="11" t="s">
+      <c r="G181" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D182" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E182" s="11" t="s">
+      <c r="D182" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E182" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="F182" s="11" t="s">
+      <c r="F182" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G182" s="11"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11" t="s">
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11" t="s">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11" t="s">
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G184" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11" t="s">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11" t="s">
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11" t="s">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11" t="s">
+      <c r="D186" s="7"/>
+      <c r="E186" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F186" s="11" t="s">
+      <c r="F186" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G186" s="11"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11" t="s">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11" t="s">
+      <c r="D187" s="7"/>
+      <c r="E187" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F187" s="11" t="s">
+      <c r="F187" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11" t="s">
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11" t="s">
+      <c r="D188" s="7"/>
+      <c r="E188" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F188" s="11" t="s">
+      <c r="F188" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G188" s="11" t="s">
+      <c r="G188" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11" t="s">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11" t="s">
+      <c r="D189" s="7"/>
+      <c r="E189" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F189" s="11" t="s">
+      <c r="F189" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G189" s="11" t="s">
+      <c r="G189" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11" t="s">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11" t="s">
+      <c r="D190" s="7"/>
+      <c r="E190" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F190" s="11" t="s">
+      <c r="F190" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G190" s="11" t="s">
+      <c r="G190" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11" t="s">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11" t="s">
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G191" s="11"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11" t="s">
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G192" s="11"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11" t="s">
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11" t="s">
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G193" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
+      <c r="G193" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11" t="s">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="F194" s="11" t="s">
+      <c r="D194" s="7"/>
+      <c r="E194" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11" t="s">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11" t="s">
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="648">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1918,9 +1918,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
@@ -1949,6 +1946,27 @@
   </si>
   <si>
     <t>Compare 2 Values</t>
+  </si>
+  <si>
+    <t>Sub Test Case 2</t>
+  </si>
+  <si>
+    <t>Sub Test Case 3</t>
+  </si>
+  <si>
+    <t>Test.Case.1002</t>
+  </si>
+  <si>
+    <t>Test.Case.1003</t>
+  </si>
+  <si>
+    <t>Test.Case.1004</t>
+  </si>
+  <si>
+    <t>Test.Case.1005</t>
+  </si>
+  <si>
+    <t>Get Page Title</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2057,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2071,12 +2089,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2111,7 +2123,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2148,31 +2160,27 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2501,9 +2509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2537,10 +2545,10 @@
         <v>179</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,9 +2561,7 @@
       <c r="C3" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>631</v>
-      </c>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -2565,25 +2571,21 @@
         <v>131</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D4" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>631</v>
-      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2593,11 +2595,9 @@
         <v>139</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D6" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -2607,23 +2607,19 @@
         <v>143</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D7" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -2635,9 +2631,7 @@
       <c r="C9" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -2647,11 +2641,9 @@
         <v>145</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D10" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
@@ -2663,9 +2655,7 @@
       <c r="C11" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -2677,9 +2667,7 @@
       <c r="C12" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -2691,9 +2679,7 @@
       <c r="C13" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -2705,9 +2691,7 @@
       <c r="C14" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
@@ -2717,11 +2701,9 @@
         <v>155</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D15" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
@@ -2731,11 +2713,9 @@
         <v>159</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D16" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -2745,11 +2725,9 @@
         <v>133</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D17" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
@@ -2759,11 +2737,9 @@
         <v>137</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D18" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
@@ -2773,11 +2749,9 @@
         <v>141</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D19" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
@@ -2787,11 +2761,9 @@
         <v>163</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D20" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
@@ -2803,9 +2775,7 @@
       <c r="C21" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
@@ -2815,11 +2785,9 @@
         <v>177</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D22" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -2831,9 +2799,7 @@
       <c r="C23" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -2845,9 +2811,7 @@
       <c r="C24" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
@@ -2857,11 +2821,9 @@
         <v>175</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D25" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
@@ -2873,9 +2835,7 @@
       <c r="C26" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -2887,9 +2847,7 @@
       <c r="C27" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2901,21 +2859,19 @@
       <c r="C28" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
@@ -2925,11 +2881,9 @@
         <v>268</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D30" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
@@ -2939,23 +2893,21 @@
         <v>304</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D31" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
@@ -2967,9 +2919,7 @@
       <c r="C33" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -2979,33 +2929,31 @@
       <c r="C34" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -3015,11 +2963,9 @@
         <v>339</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D37" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
@@ -3031,21 +2977,19 @@
       <c r="C38" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
@@ -3057,9 +3001,7 @@
       <c r="C40" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
@@ -3069,11 +3011,9 @@
         <v>274</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D41" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
@@ -3085,9 +3025,7 @@
       <c r="C42" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
@@ -3099,9 +3037,7 @@
       <c r="C43" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
@@ -3111,11 +3047,9 @@
         <v>327</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D44" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
@@ -3127,9 +3061,7 @@
       <c r="C45" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
@@ -3141,9 +3073,7 @@
       <c r="C46" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
@@ -3155,9 +3085,7 @@
       <c r="C47" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
@@ -3167,11 +3095,9 @@
         <v>184</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D48" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
@@ -3181,11 +3107,9 @@
         <v>353</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D49" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
@@ -3195,11 +3119,9 @@
         <v>355</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D50" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
@@ -3209,11 +3131,9 @@
         <v>351</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D51" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
@@ -3223,11 +3143,9 @@
         <v>353</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D52" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
@@ -3237,11 +3155,9 @@
         <v>355</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D53" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
@@ -3251,11 +3167,9 @@
         <v>351</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D54" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -3267,9 +3181,7 @@
       <c r="C55" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
@@ -3279,11 +3191,9 @@
         <v>343</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D56" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
@@ -3295,9 +3205,7 @@
       <c r="C57" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
@@ -3309,9 +3217,7 @@
       <c r="C58" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
@@ -3321,11 +3227,9 @@
         <v>280</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D59" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
@@ -3335,11 +3239,9 @@
         <v>282</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D60" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
@@ -3351,9 +3253,7 @@
       <c r="C61" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
@@ -3363,11 +3263,9 @@
         <v>194</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D62" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
@@ -3377,11 +3275,9 @@
         <v>381</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D63" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
@@ -3391,23 +3287,21 @@
         <v>360</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D64" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
@@ -3417,11 +3311,9 @@
         <v>310</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D66" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
@@ -3431,11 +3323,9 @@
         <v>312</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D67" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
@@ -3447,9 +3337,7 @@
       <c r="C68" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D68" s="16"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
@@ -3461,9 +3349,7 @@
       <c r="C69" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
@@ -3473,47 +3359,45 @@
         <v>284</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D70" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -3523,23 +3407,21 @@
         <v>362</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D74" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D75" s="22"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
@@ -3551,9 +3433,7 @@
       <c r="C76" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
@@ -3565,9 +3445,7 @@
       <c r="C77" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
@@ -3579,33 +3457,31 @@
       <c r="C78" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D79" s="22"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
@@ -3617,9 +3493,7 @@
       <c r="C81" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
@@ -3631,21 +3505,19 @@
       <c r="C82" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D83" s="22"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
@@ -3657,9 +3529,7 @@
       <c r="C84" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D84" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
@@ -3669,35 +3539,33 @@
         <v>286</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D85" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D86" s="22"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D87" s="22"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
@@ -3707,11 +3575,9 @@
         <v>308</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D88" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
@@ -3723,9 +3589,7 @@
       <c r="C89" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
@@ -3735,11 +3599,9 @@
         <v>364</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D90" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
@@ -3751,9 +3613,7 @@
       <c r="C91" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -3763,11 +3623,9 @@
         <v>373</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D92" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D92" s="17"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
@@ -3777,11 +3635,9 @@
         <v>375</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D93" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D93" s="17"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
@@ -3793,9 +3649,7 @@
       <c r="C94" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
@@ -3807,9 +3661,7 @@
       <c r="C95" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
@@ -3821,9 +3673,7 @@
       <c r="C96" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -3835,9 +3685,7 @@
       <c r="C97" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
@@ -3849,9 +3697,7 @@
       <c r="C98" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D98" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
@@ -3861,11 +3707,9 @@
         <v>366</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D99" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D99" s="17"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
@@ -3877,9 +3721,7 @@
       <c r="C100" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
@@ -3889,11 +3731,9 @@
         <v>371</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D101" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D101" s="17"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
@@ -3903,11 +3743,9 @@
         <v>257</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D102" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D102" s="17"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
@@ -3917,13 +3755,11 @@
         <v>257</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D103" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>83</v>
       </c>
@@ -3933,7 +3769,7 @@
       <c r="C104" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="D104" s="22"/>
+      <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
@@ -3943,11 +3779,9 @@
         <v>211</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D105" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
@@ -3957,11 +3791,9 @@
         <v>213</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D106" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
@@ -3973,9 +3805,7 @@
       <c r="C107" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
@@ -3985,23 +3815,21 @@
         <v>254</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D108" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="22" t="s">
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D109" s="22"/>
+      <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
@@ -4011,11 +3839,9 @@
         <v>260</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D110" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D110" s="17"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -4025,11 +3851,9 @@
         <v>302</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D111" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D111" s="17"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
@@ -4039,11 +3863,9 @@
         <v>300</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D112" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D112" s="17"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
@@ -4053,11 +3875,9 @@
         <v>306</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D113" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D113" s="17"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
@@ -4069,9 +3889,7 @@
       <c r="C114" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
@@ -4083,21 +3901,19 @@
       <c r="C115" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="22" t="s">
+      <c r="D115" s="16"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D116" s="22"/>
+      <c r="D116" s="21"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
@@ -4107,11 +3923,9 @@
         <v>216</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D117" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D117" s="17"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
@@ -4121,11 +3935,9 @@
         <v>218</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D118" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D118" s="17"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
@@ -4137,45 +3949,43 @@
       <c r="C119" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="D119" s="16"/>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D120" s="22"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="22" t="s">
+      <c r="D120" s="21"/>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D122" s="22"/>
+      <c r="D122" s="21"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
@@ -4185,11 +3995,9 @@
         <v>226</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D123" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D123" s="17"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
@@ -4199,23 +4007,21 @@
         <v>228</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D124" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D125" s="22"/>
+      <c r="D125" s="21"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
@@ -4227,9 +4033,7 @@
       <c r="C126" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D126" s="16"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
@@ -4239,11 +4043,9 @@
         <v>233</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D127" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D127" s="17"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
@@ -4253,23 +4055,21 @@
         <v>235</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D128" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="22" t="s">
+      <c r="D128" s="17"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D129" s="22"/>
+      <c r="D129" s="21"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
@@ -4281,9 +4081,7 @@
       <c r="C130" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
@@ -4295,9 +4093,7 @@
       <c r="C131" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
@@ -4307,11 +4103,9 @@
         <v>379</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D132" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D132" s="17"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
@@ -4321,11 +4115,9 @@
         <v>333</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D133" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D133" s="17"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="16" t="s">
@@ -4337,9 +4129,7 @@
       <c r="C134" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D134" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="16" t="s">
@@ -4351,9 +4141,7 @@
       <c r="C135" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D135" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D135" s="16"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
@@ -4365,9 +4153,7 @@
       <c r="C136" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D136" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
@@ -4377,11 +4163,9 @@
         <v>241</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D137" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D137" s="17"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
@@ -4391,11 +4175,9 @@
         <v>243</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D138" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D138" s="17"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
@@ -4405,11 +4187,9 @@
         <v>325</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D139" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D139" s="17"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
@@ -4419,23 +4199,21 @@
         <v>323</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D140" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D141" s="22"/>
+      <c r="D141" s="21"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="16" t="s">
@@ -4445,9 +4223,7 @@
       <c r="C142" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D142" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D142" s="16"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
@@ -4457,11 +4233,9 @@
         <v>265</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D143" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D143" s="17"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
@@ -4471,11 +4245,9 @@
         <v>265</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D144" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D144" s="17"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
@@ -4485,11 +4257,9 @@
         <v>335</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D145" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D145" s="17"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
@@ -4501,9 +4271,7 @@
       <c r="C146" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D146" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D146" s="16"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
@@ -4513,23 +4281,21 @@
         <v>337</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D147" s="17" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="17"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="22"/>
+      <c r="D148" s="21"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
@@ -4541,21 +4307,19 @@
       <c r="C149" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D149" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="22" t="s">
+      <c r="D149" s="16"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D150" s="22"/>
+      <c r="D150" s="21"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
@@ -4565,11 +4329,9 @@
         <v>246</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D151" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
@@ -4579,11 +4341,9 @@
         <v>248</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D152" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
@@ -4593,11 +4353,9 @@
         <v>377</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D153" s="17" t="s">
         <v>631</v>
       </c>
+      <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="16" t="s">
@@ -4609,9 +4367,7 @@
       <c r="C154" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D154" s="16" t="s">
-        <v>631</v>
-      </c>
+      <c r="D154" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A2:B168">
@@ -4665,7 +4421,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -4751,11 +4507,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD198"/>
+  <dimension ref="A1:XFD205"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8533,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
@@ -24936,7 +24692,7 @@
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>2</v>
@@ -24972,13 +24728,13 @@
     </row>
     <row r="198" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="E198" s="13">
         <v>5</v>
@@ -24989,6 +24745,101 @@
       <c r="G198" s="6">
         <v>5</v>
       </c>
+    </row>
+    <row r="199" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="C200" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="C201" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A203" s="7"/>
+      <c r="C203" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G205" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25018,9 +24869,10 @@
     <hyperlink ref="G153" r:id="rId24"/>
     <hyperlink ref="G184" r:id="rId25"/>
     <hyperlink ref="G193" r:id="rId26"/>
+    <hyperlink ref="G203" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="650">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1967,6 +1967,12 @@
   </si>
   <si>
     <t>Get Page Title</t>
+  </si>
+  <si>
+    <t>Sub Test Case 4</t>
+  </si>
+  <si>
+    <t>Test.Case.1006</t>
   </si>
 </sst>
 </file>
@@ -4507,11 +4513,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD205"/>
+  <dimension ref="A1:XFD206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -24777,35 +24783,29 @@
       </c>
     </row>
     <row r="202" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
+      <c r="C202" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G202" s="7"/>
-    </row>
-    <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A203" s="7"/>
-      <c r="C203" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G203" s="7"/>
     </row>
     <row r="204" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -24814,15 +24814,17 @@
       <c r="B204" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>647</v>
+      <c r="C204" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
-      <c r="F204" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G204" s="1"/>
+      <c r="F204" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="205" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
@@ -24831,15 +24833,32 @@
       <c r="B205" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>9</v>
+      <c r="C205" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
-      <c r="F205" s="7" t="s">
+      <c r="F205" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G205" s="7"/>
+      <c r="G206" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24869,13 +24888,13 @@
     <hyperlink ref="G153" r:id="rId24"/>
     <hyperlink ref="G184" r:id="rId25"/>
     <hyperlink ref="G193" r:id="rId26"/>
-    <hyperlink ref="G203" r:id="rId27"/>
+    <hyperlink ref="G204" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId28"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="671">
   <si>
     <t>openBrowser</t>
   </si>
@@ -430,9 +430,6 @@
     <t>assert=</t>
   </si>
   <si>
-    <t>Assert expected value equals actual value</t>
-  </si>
-  <si>
     <t>assertElementText=</t>
   </si>
   <si>
@@ -2027,6 +2024,18 @@
   </si>
   <si>
     <t>xpath=//select//option[text()='Automation' and @selected='selected']</t>
+  </si>
+  <si>
+    <t>Assert expected value equals actual value. It is for numeric values</t>
+  </si>
+  <si>
+    <t>goForward</t>
+  </si>
+  <si>
+    <t>Go Forward to next page in current browser window/ tab</t>
+  </si>
+  <si>
+    <t>no description</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2192,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2239,9 +2248,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2571,11 +2577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2595,10 +2601,10 @@
         <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2606,1796 +2612,1798 @@
         <v>134</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="B40" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="C79" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D79" s="20"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D80" s="20"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D81" s="20"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="B83" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D83" s="20"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D84" s="20"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D85" s="20"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D86" s="20"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D87" s="20"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D88" s="20"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D89" s="20"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D90" s="20"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D92" s="20"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D93" s="20"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D77" s="21"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D80" s="21"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="B86" s="21" t="s">
+      <c r="B94" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D94" s="20"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D95" s="20"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D96" s="20"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D88" s="21"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D89" s="21"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D91" s="21"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+      <c r="B97" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D93" s="21"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D94" s="21"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D96" s="21"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>377</v>
-      </c>
       <c r="C97" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D97" s="21"/>
+        <v>630</v>
+      </c>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>637</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D98" s="20"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D99" s="13"/>
+        <v>245</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D99" s="20"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D100" s="13"/>
+        <v>246</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D100" s="20"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>148</v>
+        <v>375</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D101" s="13"/>
+        <v>376</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D102" s="13"/>
+        <v>633</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>153</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>191</v>
+        <v>327</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>192</v>
+        <v>328</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D141" s="13"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>230</v>
+        <v>618</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>231</v>
+        <v>376</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>344</v>
+        <v>235</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="B151" s="13"/>
+        <v>237</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="C151" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D151" s="13"/>
     </row>
@@ -4403,40 +4411,54 @@
       <c r="A152" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="B152" s="13"/>
+      <c r="B152" s="13" t="s">
+        <v>670</v>
+      </c>
       <c r="C152" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>249</v>
+        <v>621</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D154" s="13"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D154" s="13"/>
+      <c r="C155" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D155" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D154">
-    <sortCondition ref="C2:C154"/>
-    <sortCondition ref="A2:A154"/>
+  <sortState ref="A2:D155">
+    <sortCondition ref="C2:C155"/>
+    <sortCondition ref="A2:A155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4456,37 +4478,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -4574,9 +4596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4627,7 +4649,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -4645,7 +4667,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5104,7 +5126,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
@@ -5469,17 +5491,17 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
@@ -5492,13 +5514,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -5515,7 +5537,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -5523,13 +5545,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5551,11 +5573,11 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>2</v>
@@ -5572,7 +5594,7 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>11</v>
@@ -5585,10 +5607,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>7</v>
@@ -5608,7 +5630,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -5616,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5625,11 +5647,11 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>2</v>
@@ -5642,11 +5664,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -5659,11 +5681,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>2</v>
@@ -5676,11 +5698,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>93</v>
@@ -5695,11 +5717,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>2</v>
@@ -5712,11 +5734,11 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>2</v>
@@ -5742,10 +5764,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>7</v>
@@ -5780,7 +5802,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -5788,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -5797,11 +5819,11 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>85</v>
@@ -5816,11 +5838,11 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>2</v>
@@ -5833,7 +5855,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -5848,7 +5870,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5856,7 +5878,7 @@
         <v>83</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5865,17 +5887,17 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -5884,17 +5906,17 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -5907,13 +5929,13 @@
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -5922,11 +5944,11 @@
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
@@ -5941,17 +5963,17 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -5960,42 +5982,42 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,7 +6028,7 @@
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>2</v>
@@ -6032,52 +6054,52 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
@@ -6097,7 +6119,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -6105,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -6114,7 +6136,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -6122,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -6131,28 +6153,28 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -6162,15 +6184,15 @@
         <v>1</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>7</v>
@@ -6186,7 +6208,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -6199,7 +6221,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -6212,7 +6234,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -6225,7 +6247,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -6238,7 +6260,7 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -6249,10 +6271,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>7</v>
@@ -6287,7 +6309,7 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -6295,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
@@ -6304,11 +6326,11 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>2</v>
@@ -6321,15 +6343,15 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -6338,42 +6360,42 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -6382,19 +6404,19 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
@@ -6403,19 +6425,19 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
@@ -6424,17 +6446,17 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -6443,17 +6465,17 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
@@ -6462,11 +6484,11 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>2</v>
@@ -6474,21 +6496,21 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G105" s="6">
         <v>7</v>
@@ -6500,22 +6522,22 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I106" s="6"/>
     </row>
@@ -6523,22 +6545,22 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I107" s="6"/>
     </row>
@@ -6546,22 +6568,22 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I108" s="6"/>
     </row>
@@ -6569,22 +6591,22 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I109" s="6"/>
     </row>
@@ -6592,22 +6614,22 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I110" s="6"/>
     </row>
@@ -6615,22 +6637,22 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I111" s="6"/>
     </row>
@@ -6638,22 +6660,22 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I112" s="6"/>
     </row>
@@ -6661,22 +6683,22 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I113" s="6"/>
     </row>
@@ -6684,22 +6706,22 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I114" s="6"/>
     </row>
@@ -6707,22 +6729,22 @@
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I115" s="6"/>
     </row>
@@ -6730,22 +6752,22 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I116" s="6"/>
     </row>
@@ -6753,22 +6775,22 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I117" s="6"/>
     </row>
@@ -6776,22 +6798,22 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -6799,22 +6821,22 @@
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I119" s="6"/>
     </row>
@@ -6822,22 +6844,22 @@
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I120" s="6"/>
     </row>
@@ -6845,31 +6867,31 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>7</v>
@@ -6904,7 +6926,7 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -6912,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
@@ -6921,17 +6943,17 @@
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
@@ -6940,14 +6962,14 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G126" s="6">
         <v>7</v>
@@ -6959,22 +6981,22 @@
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I127" s="6"/>
     </row>
@@ -6982,22 +7004,22 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I128" s="6"/>
     </row>
@@ -7005,22 +7027,22 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I129" s="6"/>
     </row>
@@ -7028,22 +7050,22 @@
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I130" s="6"/>
     </row>
@@ -7051,22 +7073,22 @@
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I131" s="6"/>
     </row>
@@ -7074,22 +7096,22 @@
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I132" s="6"/>
     </row>
@@ -7097,19 +7119,19 @@
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
@@ -7118,17 +7140,17 @@
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
@@ -7137,13 +7159,13 @@
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>2</v>
@@ -7156,13 +7178,13 @@
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>2</v>
@@ -7175,19 +7197,19 @@
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
@@ -7196,11 +7218,11 @@
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>2</v>
@@ -7213,17 +7235,17 @@
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
@@ -7236,13 +7258,13 @@
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
@@ -7255,13 +7277,13 @@
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
@@ -7274,13 +7296,13 @@
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
@@ -7293,7 +7315,7 @@
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>11</v>
@@ -7313,13 +7335,13 @@
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
@@ -7343,10 +7365,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>7</v>
@@ -7381,7 +7403,7 @@
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -7389,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
@@ -7398,12 +7420,12 @@
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -7411,10 +7433,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>7</v>
@@ -7431,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -7453,7 +7475,7 @@
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -7461,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
@@ -7470,7 +7492,7 @@
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
@@ -7478,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
@@ -7487,12 +7509,12 @@
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -7515,23 +7537,23 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
@@ -7540,14 +7562,14 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G157" s="6">
         <v>7</v>
@@ -7559,19 +7581,19 @@
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
@@ -7580,19 +7602,19 @@
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
@@ -7601,19 +7623,19 @@
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
@@ -7622,542 +7644,542 @@
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F162" s="6" t="s">
+      <c r="G162" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I162" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I163" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H164" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="G164" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>563</v>
-      </c>
       <c r="I164" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>565</v>
-      </c>
       <c r="G165" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G166" s="6" t="s">
+      <c r="H166" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I166" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H168" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H168" s="6" t="s">
+      <c r="I168" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F169" s="6" t="s">
+      <c r="G169" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G169" s="6" t="s">
+      <c r="H169" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I169" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F170" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F170" s="6" t="s">
+      <c r="G170" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G170" s="6" t="s">
+      <c r="H170" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I170" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="G171" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H171" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H171" s="6" t="s">
+      <c r="I171" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F172" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F172" s="6" t="s">
+      <c r="G172" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H172" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H172" s="6" t="s">
+      <c r="I172" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F173" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>594</v>
-      </c>
       <c r="G173" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F174" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>596</v>
-      </c>
       <c r="G174" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G175" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I175" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F176" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F176" s="6" t="s">
+      <c r="G176" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I176" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F177" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>604</v>
-      </c>
       <c r="G177" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F178" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="G178" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="G178" s="6" t="s">
-        <v>607</v>
-      </c>
       <c r="H178" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F179" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>609</v>
-      </c>
       <c r="G179" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>611</v>
-      </c>
       <c r="G180" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>2</v>
@@ -8168,10 +8190,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>7</v>
@@ -8189,7 +8211,7 @@
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -8325,10 +8347,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>7</v>
@@ -8346,7 +8368,7 @@
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -8354,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
@@ -24757,7 +24779,7 @@
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>2</v>
@@ -24770,12 +24792,12 @@
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -24793,13 +24815,13 @@
     </row>
     <row r="198" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="C198" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="E198" s="12">
         <v>5</v>
@@ -24813,48 +24835,48 @@
     </row>
     <row r="199" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C200" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C201" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="202" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C202" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>7</v>
@@ -24868,13 +24890,13 @@
     </row>
     <row r="204" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -24887,13 +24909,13 @@
     </row>
     <row r="205" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -24904,10 +24926,10 @@
     </row>
     <row r="206" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>9</v>
@@ -24921,13 +24943,13 @@
     </row>
     <row r="207" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -24935,7 +24957,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
@@ -24948,13 +24970,13 @@
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
@@ -24963,11 +24985,11 @@
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>93</v>
@@ -24982,11 +25004,11 @@
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>2</v>
@@ -24999,11 +25021,11 @@
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>85</v>
@@ -25018,11 +25040,11 @@
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>2</v>
@@ -25035,11 +25057,11 @@
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>85</v>
@@ -25054,17 +25076,17 @@
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
@@ -25073,17 +25095,17 @@
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="671">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1924,9 +1924,6 @@
     <t>{normalize}</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>xpath=//button[@onclick='alertFunction()']</t>
   </si>
   <si>
@@ -2036,6 +2033,9 @@
   </si>
   <si>
     <t>no description</t>
+  </si>
+  <si>
+    <t>This is bit tricky. Webdriver don't have any in-build feature to validate this.</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2612,7 @@
         <v>134</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>400</v>
@@ -2621,34 +2621,34 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>400</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>400</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>400</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>400</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>400</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>400</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>400</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>400</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>400</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>400</v>
@@ -2765,34 +2765,34 @@
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>669</v>
+        <v>97</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>400</v>
@@ -2801,34 +2801,34 @@
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>4</v>
+        <v>667</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>9</v>
+        <v>668</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>400</v>
@@ -2837,58 +2837,58 @@
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>400</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>444</v>
+        <v>208</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>400</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>400</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>400</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>400</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>400</v>
@@ -2933,10 +2933,10 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>400</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>400</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>400</v>
@@ -2969,58 +2969,60 @@
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>400</v>
       </c>
       <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D34" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="13" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>630</v>
@@ -3029,10 +3031,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>630</v>
@@ -3041,10 +3043,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>630</v>
@@ -3053,10 +3055,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>630</v>
@@ -3065,10 +3067,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>630</v>
@@ -3077,10 +3079,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>630</v>
@@ -3089,10 +3091,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>630</v>
@@ -3101,10 +3103,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>630</v>
@@ -3113,10 +3115,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>630</v>
@@ -3125,10 +3127,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>630</v>
@@ -3137,10 +3139,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>630</v>
@@ -3149,22 +3151,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="D47" s="20"/>
+      <c r="D47" s="13" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>630</v>
@@ -3173,10 +3177,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>630</v>
@@ -3185,10 +3189,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>630</v>
@@ -3197,10 +3201,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>630</v>
@@ -3209,10 +3213,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>630</v>
@@ -3221,10 +3225,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>630</v>
@@ -3233,10 +3237,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>352</v>
+        <v>183</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>630</v>
@@ -3245,10 +3249,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>630</v>
@@ -3257,10 +3261,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>630</v>
@@ -3269,10 +3273,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>630</v>
@@ -3281,10 +3285,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>630</v>
@@ -3293,10 +3297,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>630</v>
@@ -3305,10 +3309,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>630</v>
@@ -3317,10 +3321,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>630</v>
@@ -3329,10 +3333,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>630</v>
@@ -3341,10 +3345,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>630</v>
@@ -3353,10 +3357,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>630</v>
@@ -3365,10 +3369,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>630</v>
@@ -3377,10 +3381,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>630</v>
@@ -3389,10 +3393,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>630</v>
@@ -3401,10 +3405,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>630</v>
@@ -3413,10 +3417,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>363</v>
+        <v>283</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>630</v>
@@ -3425,10 +3429,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>630</v>
@@ -3437,10 +3441,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>630</v>
@@ -3449,10 +3453,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>630</v>
@@ -3461,10 +3465,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>630</v>
@@ -3473,10 +3477,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>630</v>
@@ -3485,10 +3489,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>630</v>
@@ -3497,10 +3501,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>210</v>
+        <v>365</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>630</v>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>212</v>
+        <v>370</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>630</v>
@@ -3521,10 +3525,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>630</v>
@@ -3533,10 +3537,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>630</v>
@@ -3545,10 +3549,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>630</v>
@@ -3557,10 +3561,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>630</v>
@@ -3569,10 +3573,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>630</v>
@@ -3581,10 +3585,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>630</v>
@@ -3593,10 +3597,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>630</v>
@@ -3605,10 +3609,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>630</v>
@@ -3617,10 +3621,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>630</v>
@@ -3629,10 +3633,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>630</v>
@@ -3641,10 +3645,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>630</v>
@@ -3653,10 +3657,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>630</v>
@@ -3665,10 +3669,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>630</v>
@@ -3677,10 +3681,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>630</v>
@@ -3689,10 +3693,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>630</v>
@@ -3701,10 +3705,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>630</v>
@@ -3713,10 +3717,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>630</v>
@@ -3725,10 +3729,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>630</v>
@@ -3737,10 +3741,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>630</v>
@@ -3749,10 +3753,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>630</v>
@@ -3761,10 +3765,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>630</v>
@@ -3773,10 +3777,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>630</v>
@@ -3785,10 +3789,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>630</v>
@@ -3797,10 +3801,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>630</v>
@@ -3809,58 +3813,58 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>636</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D103" s="13"/>
+        <v>245</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D104" s="13"/>
+        <v>246</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D105" s="13"/>
+        <v>376</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>619</v>
@@ -3869,11 +3873,9 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>150</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="B107" s="13"/>
       <c r="C107" s="14" t="s">
         <v>619</v>
       </c>
@@ -3881,10 +3883,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>619</v>
@@ -3893,10 +3895,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>619</v>
@@ -3905,10 +3907,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>619</v>
@@ -3917,10 +3919,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>619</v>
@@ -3929,10 +3931,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>619</v>
@@ -3941,10 +3943,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>619</v>
@@ -4412,7 +4414,7 @@
         <v>622</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>619</v>
@@ -4424,7 +4426,7 @@
         <v>621</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C153" s="14" t="s">
         <v>619</v>
@@ -8376,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
@@ -24779,7 +24781,7 @@
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>2</v>
@@ -24815,13 +24817,13 @@
     </row>
     <row r="198" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="C198" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="E198" s="12">
         <v>5</v>
@@ -24835,7 +24837,7 @@
     </row>
     <row r="199" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>548</v>
@@ -24844,36 +24846,36 @@
         <v>549</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="200" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C200" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="201" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C201" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C202" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>549</v>
@@ -24890,10 +24892,10 @@
     </row>
     <row r="204" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>394</v>
@@ -24909,13 +24911,13 @@
     </row>
     <row r="205" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -24926,10 +24928,10 @@
     </row>
     <row r="206" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>9</v>
@@ -24943,13 +24945,13 @@
     </row>
     <row r="207" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>651</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -24957,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
@@ -24970,13 +24972,13 @@
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
@@ -24989,7 +24991,7 @@
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>93</v>
@@ -25004,11 +25006,11 @@
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>2</v>
@@ -25021,11 +25023,11 @@
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>85</v>
@@ -25040,11 +25042,11 @@
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>2</v>
@@ -25057,11 +25059,11 @@
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>85</v>
@@ -25076,17 +25078,17 @@
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
@@ -25095,17 +25097,17 @@
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$153</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="671">
   <si>
     <t>openBrowser</t>
   </si>
@@ -622,9 +622,6 @@
     <t>Count no of matching elements</t>
   </si>
   <si>
-    <t>Get current text from an element</t>
-  </si>
-  <si>
     <t>goBack</t>
   </si>
   <si>
@@ -2036,6 +2033,9 @@
   </si>
   <si>
     <t>This is bit tricky. Webdriver don't have any in-build feature to validate this.</t>
+  </si>
+  <si>
+    <t>Will pick this later</t>
   </si>
 </sst>
 </file>
@@ -2577,11 +2577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2601,10 +2601,10 @@
         <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2612,1380 +2612,1388 @@
         <v>134</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>667</v>
+        <v>315</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>668</v>
+        <v>316</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D20" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>206</v>
+        <v>667</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D22" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>400</v>
+        <v>205</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>444</v>
+        <v>95</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D26" s="19"/>
+        <v>399</v>
+      </c>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>400</v>
+        <v>622</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>399</v>
       </c>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>221</v>
+        <v>443</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D37" s="20"/>
+      <c r="C37" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D38" s="20"/>
+        <v>178</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D39" s="20"/>
+        <v>629</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>133</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="B42" s="13"/>
       <c r="C42" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>629</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D44" s="20"/>
+        <v>629</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D46" s="20"/>
+        <v>629</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>670</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D54" s="20"/>
+        <v>164</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>353</v>
+        <v>169</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D56" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>349</v>
+        <v>171</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D57" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>363</v>
+        <v>193</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>253</v>
+        <v>362</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D87" s="20"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D88" s="20"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D89" s="20"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D90" s="20"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D91" s="20"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D92" s="20"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D93" s="20"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D95" s="20"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D98" s="20"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D99" s="20"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D100" s="20"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>376</v>
+        <v>241</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D106" s="13"/>
+        <v>323</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D107" s="13"/>
+        <v>320</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D107" s="20"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D108" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D108" s="20"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D109" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D109" s="20"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>149</v>
+        <v>332</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D110" s="13"/>
+        <v>333</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D110" s="20"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D111" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D111" s="20"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D112" s="13"/>
+        <v>244</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D112" s="20"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D113" s="13"/>
+        <v>246</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D113" s="20"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D114" s="13"/>
+        <v>375</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D114" s="20"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>340</v>
-      </c>
       <c r="C116" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D116" s="13"/>
     </row>
@@ -3997,79 +4005,79 @@
         <v>181</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>271</v>
-      </c>
       <c r="C118" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="C119" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="C120" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="C121" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>262</v>
-      </c>
       <c r="C122" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>328</v>
-      </c>
       <c r="C123" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D123" s="13"/>
     </row>
@@ -4081,7 +4089,7 @@
         <v>185</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D124" s="13"/>
     </row>
@@ -4093,7 +4101,7 @@
         <v>187</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D125" s="13"/>
     </row>
@@ -4105,7 +4113,7 @@
         <v>189</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D126" s="13"/>
     </row>
@@ -4117,7 +4125,7 @@
         <v>191</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D127" s="13"/>
     </row>
@@ -4129,7 +4137,7 @@
         <v>196</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D128" s="13"/>
     </row>
@@ -4141,326 +4149,314 @@
         <v>198</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D141" s="13"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>218</v>
+        <v>617</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>619</v>
       </c>
       <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>237</v>
+        <v>621</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>238</v>
+        <v>668</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>621</v>
+        <v>247</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>669</v>
+        <v>248</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D154" s="13"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D155" s="13"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:D155">
-    <sortCondition ref="C2:C155"/>
-    <sortCondition ref="A2:A155"/>
+  <sortState ref="A2:D154">
+    <sortCondition ref="C2:C154"/>
+    <sortCondition ref="A2:A154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4480,37 +4476,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -4651,7 +4647,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -4669,7 +4665,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5128,7 +5124,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
@@ -5493,17 +5489,17 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
@@ -5516,13 +5512,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -5539,7 +5535,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -5547,13 +5543,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -5575,11 +5571,11 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>2</v>
@@ -5596,7 +5592,7 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>11</v>
@@ -5609,10 +5605,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>7</v>
@@ -5632,7 +5628,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -5640,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5649,11 +5645,11 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>2</v>
@@ -5666,11 +5662,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -5683,11 +5679,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>2</v>
@@ -5700,11 +5696,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>93</v>
@@ -5719,11 +5715,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>2</v>
@@ -5736,11 +5732,11 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>2</v>
@@ -5766,10 +5762,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>7</v>
@@ -5804,7 +5800,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -5812,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -5821,11 +5817,11 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>85</v>
@@ -5840,11 +5836,11 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>2</v>
@@ -5857,7 +5853,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -5872,7 +5868,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5880,7 +5876,7 @@
         <v>83</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5889,17 +5885,17 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -5908,17 +5904,17 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -5931,13 +5927,13 @@
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -5946,11 +5942,11 @@
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
@@ -5965,17 +5961,17 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -5984,42 +5980,42 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6030,7 +6026,7 @@
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>2</v>
@@ -6056,52 +6052,52 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
@@ -6121,7 +6117,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -6129,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -6138,7 +6134,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -6146,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -6155,28 +6151,28 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -6186,15 +6182,15 @@
         <v>1</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>7</v>
@@ -6210,7 +6206,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -6223,7 +6219,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -6236,7 +6232,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -6249,7 +6245,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -6262,7 +6258,7 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -6273,10 +6269,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>7</v>
@@ -6311,7 +6307,7 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -6319,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
@@ -6328,11 +6324,11 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>2</v>
@@ -6345,15 +6341,15 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -6362,42 +6358,42 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -6406,19 +6402,19 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
@@ -6427,19 +6423,19 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
@@ -6448,17 +6444,17 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -6467,17 +6463,17 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
@@ -6486,11 +6482,11 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>2</v>
@@ -6498,21 +6494,21 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G105" s="6">
         <v>7</v>
@@ -6524,22 +6520,22 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I106" s="6"/>
     </row>
@@ -6547,22 +6543,22 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I107" s="6"/>
     </row>
@@ -6570,22 +6566,22 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I108" s="6"/>
     </row>
@@ -6593,22 +6589,22 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I109" s="6"/>
     </row>
@@ -6616,22 +6612,22 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I110" s="6"/>
     </row>
@@ -6639,22 +6635,22 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I111" s="6"/>
     </row>
@@ -6662,22 +6658,22 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I112" s="6"/>
     </row>
@@ -6685,22 +6681,22 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I113" s="6"/>
     </row>
@@ -6708,22 +6704,22 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I114" s="6"/>
     </row>
@@ -6731,22 +6727,22 @@
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I115" s="6"/>
     </row>
@@ -6754,22 +6750,22 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I116" s="6"/>
     </row>
@@ -6777,22 +6773,22 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I117" s="6"/>
     </row>
@@ -6800,22 +6796,22 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -6823,22 +6819,22 @@
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I119" s="6"/>
     </row>
@@ -6846,22 +6842,22 @@
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I120" s="6"/>
     </row>
@@ -6869,31 +6865,31 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>7</v>
@@ -6928,7 +6924,7 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -6936,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
@@ -6945,17 +6941,17 @@
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
@@ -6964,14 +6960,14 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G126" s="6">
         <v>7</v>
@@ -6983,22 +6979,22 @@
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I127" s="6"/>
     </row>
@@ -7006,22 +7002,22 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I128" s="6"/>
     </row>
@@ -7029,22 +7025,22 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I129" s="6"/>
     </row>
@@ -7052,22 +7048,22 @@
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I130" s="6"/>
     </row>
@@ -7075,22 +7071,22 @@
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I131" s="6"/>
     </row>
@@ -7098,22 +7094,22 @@
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I132" s="6"/>
     </row>
@@ -7121,19 +7117,19 @@
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
@@ -7142,17 +7138,17 @@
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
@@ -7161,13 +7157,13 @@
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>2</v>
@@ -7180,13 +7176,13 @@
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>2</v>
@@ -7199,19 +7195,19 @@
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
@@ -7220,11 +7216,11 @@
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>2</v>
@@ -7237,17 +7233,17 @@
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
@@ -7260,13 +7256,13 @@
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
@@ -7279,13 +7275,13 @@
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
@@ -7298,13 +7294,13 @@
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
@@ -7317,7 +7313,7 @@
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>11</v>
@@ -7337,13 +7333,13 @@
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
@@ -7367,10 +7363,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>7</v>
@@ -7405,7 +7401,7 @@
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -7413,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
@@ -7422,12 +7418,12 @@
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -7435,10 +7431,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>7</v>
@@ -7455,7 +7451,7 @@
         <v>3</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -7477,7 +7473,7 @@
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -7485,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
@@ -7494,7 +7490,7 @@
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
@@ -7502,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
@@ -7511,12 +7507,12 @@
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -7539,23 +7535,23 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
@@ -7564,14 +7560,14 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G157" s="6">
         <v>7</v>
@@ -7583,19 +7579,19 @@
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
@@ -7604,19 +7600,19 @@
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
@@ -7625,19 +7621,19 @@
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
@@ -7646,542 +7642,542 @@
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="C162" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F162" s="6" t="s">
+      <c r="G162" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I162" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I163" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H164" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="G164" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>562</v>
-      </c>
       <c r="I164" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>564</v>
-      </c>
       <c r="G165" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G166" s="6" t="s">
+      <c r="H166" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I166" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H168" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H168" s="6" t="s">
+      <c r="I168" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F169" s="6" t="s">
+      <c r="G169" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="G169" s="6" t="s">
+      <c r="H169" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I169" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F170" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F170" s="6" t="s">
+      <c r="G170" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="G170" s="6" t="s">
+      <c r="H170" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I170" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="G171" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H171" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H171" s="6" t="s">
+      <c r="I171" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F172" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F172" s="6" t="s">
+      <c r="G172" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H172" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H172" s="6" t="s">
+      <c r="I172" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F173" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>593</v>
-      </c>
       <c r="G173" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F174" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="G174" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G175" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I175" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F176" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F176" s="6" t="s">
+      <c r="G176" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="I176" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F177" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>603</v>
-      </c>
       <c r="G177" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F178" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="G178" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="G178" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="H178" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F179" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>608</v>
-      </c>
       <c r="G179" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>610</v>
-      </c>
       <c r="G180" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>614</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>2</v>
@@ -8192,10 +8188,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>7</v>
@@ -8213,7 +8209,7 @@
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -8349,7 +8345,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>178</v>
@@ -8370,7 +8366,7 @@
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -8378,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
@@ -24781,7 +24777,7 @@
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>2</v>
@@ -24794,7 +24790,7 @@
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -24817,13 +24813,13 @@
     </row>
     <row r="198" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="C198" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="E198" s="12">
         <v>5</v>
@@ -24837,48 +24833,48 @@
     </row>
     <row r="199" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="200" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C200" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="201" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C201" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="202" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="C202" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>7</v>
@@ -24892,13 +24888,13 @@
     </row>
     <row r="204" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -24911,13 +24907,13 @@
     </row>
     <row r="205" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -24928,10 +24924,10 @@
     </row>
     <row r="206" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>9</v>
@@ -24945,13 +24941,13 @@
     </row>
     <row r="207" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -24959,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
@@ -24972,13 +24968,13 @@
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
@@ -24987,11 +24983,11 @@
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>93</v>
@@ -25006,11 +25002,11 @@
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>2</v>
@@ -25023,11 +25019,11 @@
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>85</v>
@@ -25042,11 +25038,11 @@
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>2</v>
@@ -25059,11 +25055,11 @@
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>85</v>
@@ -25078,17 +25074,17 @@
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
@@ -25097,17 +25093,17 @@
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$151</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="668">
   <si>
     <t>openBrowser</t>
   </si>
@@ -976,12 +976,6 @@
     <t>Generate a random string of specified length</t>
   </si>
   <si>
-    <t>runTestCase</t>
-  </si>
-  <si>
-    <t>Run another test case as reusable component</t>
-  </si>
-  <si>
     <t>Set/ update a variable value</t>
   </si>
   <si>
@@ -1876,12 +1870,6 @@
     <t>{nowait}</t>
   </si>
   <si>
-    <t>sendKeys</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>{nolog}</t>
   </si>
   <si>
@@ -2036,6 +2024,9 @@
   </si>
   <si>
     <t>Will pick this later</t>
+  </si>
+  <si>
+    <t>Update Excel Column</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2183,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,12 +2222,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,6 +2236,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2577,20 +2565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="18"/>
+    <col min="4" max="4" width="68" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="11.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,10 +2591,10 @@
         <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -2612,10 +2602,10 @@
         <v>134</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>399</v>
+        <v>661</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D2" s="13"/>
     </row>
@@ -2626,8 +2616,8 @@
       <c r="B3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>399</v>
+      <c r="C3" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D3" s="13"/>
     </row>
@@ -2638,8 +2628,8 @@
       <c r="B4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>399</v>
+      <c r="C4" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -2650,8 +2640,8 @@
       <c r="B5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>399</v>
+      <c r="C5" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -2662,8 +2652,8 @@
       <c r="B6" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>399</v>
+      <c r="C6" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -2674,8 +2664,8 @@
       <c r="B7" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>399</v>
+      <c r="C7" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -2686,10 +2676,10 @@
       <c r="B8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -2698,10 +2688,10 @@
       <c r="B9" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D9" s="19"/>
+      <c r="C9" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -2710,10 +2700,10 @@
       <c r="B10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2722,10 +2712,10 @@
       <c r="B11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2734,10 +2724,10 @@
       <c r="B12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -2746,10 +2736,10 @@
       <c r="B13" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -2758,10 +2748,10 @@
       <c r="B14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -2770,10 +2760,10 @@
       <c r="B15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -2782,10 +2772,10 @@
       <c r="B16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D16" s="19"/>
+      <c r="C16" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -2794,10 +2784,10 @@
       <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="C17" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -2806,10 +2796,10 @@
       <c r="B18" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" s="19"/>
+      <c r="C18" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -2818,10 +2808,10 @@
       <c r="B19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D19" s="19"/>
+      <c r="C19" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -2830,20 +2820,20 @@
       <c r="B20" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>399</v>
+      <c r="C20" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>399</v>
+        <v>663</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -2854,8 +2844,8 @@
       <c r="B22" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>399</v>
+      <c r="C22" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D22" s="13"/>
     </row>
@@ -2866,10 +2856,10 @@
       <c r="B23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D23" s="19"/>
+      <c r="C23" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -2878,10 +2868,10 @@
       <c r="B24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D24" s="19"/>
+      <c r="C24" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
@@ -2890,10 +2880,10 @@
       <c r="B25" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D25" s="19"/>
+      <c r="C25" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -2902,8 +2892,8 @@
       <c r="B26" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>399</v>
+      <c r="C26" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D26" s="13"/>
     </row>
@@ -2912,24 +2902,24 @@
         <v>83</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="D27" s="19"/>
+        <v>618</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28" s="19"/>
+        <v>441</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -2938,10 +2928,10 @@
       <c r="B29" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D29" s="19"/>
+      <c r="C29" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
@@ -2950,10 +2940,10 @@
       <c r="B30" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D30" s="19"/>
+      <c r="C30" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -2962,10 +2952,10 @@
       <c r="B31" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D31" s="19"/>
+      <c r="C31" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
@@ -2974,10 +2964,10 @@
       <c r="B32" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D32" s="19"/>
+      <c r="C32" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
@@ -2986,22 +2976,22 @@
       <c r="B33" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D33" s="19"/>
+      <c r="C33" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D34" s="19"/>
+        <v>317</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
@@ -3010,1453 +3000,1431 @@
       <c r="B35" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" s="19"/>
+      <c r="C35" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D36" s="19"/>
+        <v>248</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="C38" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="C39" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="C40" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="C41" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="C44" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="C45" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="C46" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="C47" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="C49" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="C50" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B51" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="C51" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="C52" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="C53" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D53" s="18"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B54" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="C54" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D54" s="18"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B55" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="C55" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="C56" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B57" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="C57" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B58" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="C58" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B59" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="C59" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="C60" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B61" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="C61" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D61" s="18"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="C62" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B66" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="C66" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B72" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="C72" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B73" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="C73" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D73" s="18"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="C75" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="B78" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D85" s="18"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D88" s="18"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D67" s="20"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D70" s="20"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D71" s="20"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D72" s="20"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D73" s="20"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="C89" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D89" s="18"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D90" s="18"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D94" s="18"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D75" s="20"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D77" s="20"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="C95" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D95" s="18"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D100" s="18"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B102" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="C102" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D104" s="18"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D107" s="13"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B109" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D83" s="20"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D84" s="20"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="C109" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D110" s="18"/>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D85" s="20"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="C111" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D111" s="13"/>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B113" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="C113" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B114" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="C114" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D114" s="18"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B115" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="C115" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D115" s="18"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B116" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D90" s="20"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+      <c r="C116" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D116" s="18"/>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B118" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="C118" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D118" s="18"/>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B119" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D92" s="20"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="C119" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D119" s="18"/>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B120" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D93" s="20"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+      <c r="C120" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D120" s="18"/>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B121" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D94" s="20"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+      <c r="C121" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D121" s="18"/>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B122" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D95" s="20"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="C122" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D122" s="18"/>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D123" s="13"/>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B124" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D96" s="20"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="C124" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D124" s="18"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B125" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+      <c r="C125" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D125" s="18"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D126" s="13"/>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B127" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D98" s="20"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+      <c r="C127" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D127" s="18"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B128" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="C128" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D128" s="18"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D129" s="13"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B130" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D100" s="20"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+      <c r="C130" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D130" s="18"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B131" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D103" s="20"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D104" s="20"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D105" s="20"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D106" s="20"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D107" s="20"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D108" s="20"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D109" s="20"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D110" s="20"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D111" s="20"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D112" s="20"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D113" s="20"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+      <c r="C131" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D131" s="18"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D132" s="13"/>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D133" s="13"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B134" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D114" s="20"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D115" s="13"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D116" s="13"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D117" s="13"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D118" s="13"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D119" s="13"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D120" s="13"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D121" s="13"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D122" s="13"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D123" s="13"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D124" s="13"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D125" s="13"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D126" s="13"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D127" s="13"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D128" s="13"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D129" s="13"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D130" s="13"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D131" s="13"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D132" s="13"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D133" s="13"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D134" s="13"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D134" s="18"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>328</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D135" s="13"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D135" s="18"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>618</v>
+        <v>235</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="D136" s="13"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>618</v>
+        <v>341</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="D137" s="13"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>363</v>
+        <v>236</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>618</v>
+        <v>237</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="D138" s="13"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D139" s="13"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D139" s="18"/>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D140" s="13"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D140" s="18"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B141" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D141" s="18"/>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C141" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D141" s="13"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="B142" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D142" s="13"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D142" s="18"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>217</v>
+        <v>617</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>618</v>
+        <v>664</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="D143" s="13"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>618</v>
+        <v>667</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="D144" s="13"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D145" s="13"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D145" s="18"/>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D146" s="13"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D146" s="18"/>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D147" s="13"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D147" s="18"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D148" s="13"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D148" s="18"/>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>618</v>
+        <v>296</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="D149" s="13"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D150" s="13"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D150" s="18"/>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>621</v>
+        <v>245</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D151" s="13"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D151" s="18"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>620</v>
+        <v>372</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D152" s="13"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D153" s="13"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D154" s="13"/>
+        <v>373</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="D152" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D154">
-    <sortCondition ref="C2:C154"/>
-    <sortCondition ref="A2:A154"/>
+  <sortState ref="A2:D152">
+    <sortCondition ref="C2:C152"/>
+    <sortCondition ref="A2:A152"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4476,37 +4444,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4488,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,12 +4562,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -4613,7 +4581,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>116</v>
       </c>
@@ -4642,12 +4610,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -4661,11 +4629,11 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4678,7 +4646,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
@@ -4693,7 +4661,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -4710,7 +4678,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -4727,7 +4695,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -4746,7 +4714,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4765,7 +4733,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
@@ -4784,7 +4752,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
@@ -4799,7 +4767,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>127</v>
       </c>
@@ -4820,7 +4788,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4837,7 +4805,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
@@ -4852,7 +4820,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -4869,7 +4837,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -4886,7 +4854,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4905,7 +4873,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -4922,7 +4890,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
@@ -4939,7 +4907,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -4958,7 +4926,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4975,7 +4943,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
@@ -4994,7 +4962,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
@@ -5011,7 +4979,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
@@ -5030,7 +4998,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
@@ -5047,7 +5015,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
@@ -5062,7 +5030,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>126</v>
       </c>
@@ -5083,7 +5051,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -5100,7 +5068,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -5119,12 +5087,12 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
@@ -5142,7 +5110,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -5161,7 +5129,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -5178,7 +5146,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -5195,7 +5163,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
@@ -5214,7 +5182,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
@@ -5233,7 +5201,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -5252,7 +5220,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
@@ -5271,7 +5239,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
@@ -5290,7 +5258,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
@@ -5309,7 +5277,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -5328,7 +5296,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
@@ -5345,7 +5313,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
@@ -5362,7 +5330,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
@@ -5381,7 +5349,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
@@ -5400,7 +5368,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
@@ -5417,7 +5385,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
@@ -5436,7 +5404,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
@@ -5453,7 +5421,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
@@ -5470,7 +5438,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
@@ -5487,19 +5455,19 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
@@ -5510,15 +5478,15 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -5531,11 +5499,11 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -5543,16 +5511,16 @@
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
@@ -5567,15 +5535,15 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>2</v>
@@ -5584,7 +5552,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
@@ -5592,7 +5560,7 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>11</v>
@@ -5603,12 +5571,12 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>7</v>
@@ -5624,11 +5592,11 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -5636,20 +5604,20 @@
         <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>2</v>
@@ -5658,15 +5626,15 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -5675,15 +5643,15 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>2</v>
@@ -5692,15 +5660,15 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>93</v>
@@ -5711,15 +5679,15 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>2</v>
@@ -5728,15 +5696,15 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>2</v>
@@ -5745,7 +5713,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
@@ -5760,12 +5728,12 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>7</v>
@@ -5781,7 +5749,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
@@ -5796,11 +5764,11 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -5808,20 +5776,20 @@
         <v>1</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>85</v>
@@ -5832,15 +5800,15 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>2</v>
@@ -5849,11 +5817,11 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -5864,11 +5832,11 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5876,50 +5844,50 @@
         <v>83</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
@@ -5927,26 +5895,26 @@
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
@@ -5957,68 +5925,68 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
@@ -6026,7 +5994,7 @@
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>2</v>
@@ -6035,7 +6003,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
@@ -6050,15 +6018,15 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -6066,38 +6034,38 @@
         <v>257</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
@@ -6113,11 +6081,11 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -6125,16 +6093,16 @@
         <v>1</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -6142,37 +6110,37 @@
         <v>1</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -6182,15 +6150,15 @@
         <v>1</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>7</v>
@@ -6202,11 +6170,11 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -6215,11 +6183,11 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -6228,11 +6196,11 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -6241,11 +6209,11 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -6254,11 +6222,11 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -6267,12 +6235,12 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>7</v>
@@ -6288,7 +6256,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="s">
@@ -6303,11 +6271,11 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -6315,20 +6283,20 @@
         <v>1</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>2</v>
@@ -6337,11 +6305,11 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -6349,144 +6317,144 @@
         <v>257</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>2</v>
@@ -6494,18 +6462,18 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>315</v>
@@ -6516,380 +6484,380 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>7</v>
@@ -6905,7 +6873,7 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6" t="s">
@@ -6920,11 +6888,11 @@
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -6932,39 +6900,39 @@
         <v>1</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>315</v>
@@ -6975,195 +6943,195 @@
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>2</v>
@@ -7172,17 +7140,17 @@
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>2</v>
@@ -7191,36 +7159,36 @@
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>2</v>
@@ -7229,26 +7197,26 @@
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
@@ -7256,18 +7224,18 @@
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
@@ -7275,18 +7243,18 @@
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
@@ -7294,18 +7262,18 @@
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6" t="s">
@@ -7313,7 +7281,7 @@
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>11</v>
@@ -7325,7 +7293,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
@@ -7333,18 +7301,18 @@
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
@@ -7361,12 +7329,12 @@
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>7</v>
@@ -7382,7 +7350,7 @@
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6" t="s">
@@ -7397,11 +7365,11 @@
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -7409,32 +7377,32 @@
         <v>1</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>7</v>
@@ -7451,10 +7419,10 @@
         <v>3</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6" t="s">
@@ -7469,11 +7437,11 @@
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -7481,16 +7449,16 @@
         <v>1</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
@@ -7498,27 +7466,27 @@
         <v>1</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6" t="s">
@@ -7533,38 +7501,38 @@
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>548</v>
-      </c>
       <c r="C156" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>315</v>
@@ -7575,609 +7543,609 @@
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="G162" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I162" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I163" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H164" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>561</v>
-      </c>
       <c r="I164" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="H166" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I166" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="G166" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H168" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="I168" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F169" s="6" t="s">
+      <c r="H169" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I169" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="G169" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F170" s="6" t="s">
+      <c r="H170" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I170" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="G170" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H171" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="I171" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H172" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F172" s="6" t="s">
+      <c r="I172" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I176" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="H178" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F180" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="G180" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>611</v>
-      </c>
       <c r="C181" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>2</v>
@@ -8186,12 +8154,12 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>7</v>
@@ -8205,11 +8173,11 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -8222,7 +8190,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
@@ -8237,7 +8205,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
@@ -8254,7 +8222,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6" t="s">
@@ -8271,7 +8239,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
@@ -8290,7 +8258,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
@@ -8309,7 +8277,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
@@ -8328,7 +8296,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6" t="s">
@@ -8343,9 +8311,9 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>178</v>
@@ -8362,11 +8330,11 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -8374,12 +8342,12 @@
         <v>1</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6" t="s">
@@ -24769,7 +24737,7 @@
       <c r="XFC194" s="6"/>
       <c r="XFD194" s="6"/>
     </row>
-    <row r="195" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6" t="s">
@@ -24777,7 +24745,7 @@
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>2</v>
@@ -24786,11 +24754,11 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -24801,7 +24769,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="6" t="s">
         <v>64</v>
       </c>
@@ -24811,15 +24779,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E198" s="12">
         <v>5</v>
@@ -24831,50 +24799,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F199" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C200" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C201" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C202" s="5" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="200" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="C200" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="F200" s="5" t="s">
+      <c r="F202" s="5" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="201" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="C201" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="C202" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>7</v>
@@ -24886,15 +24854,15 @@
       </c>
       <c r="G203" s="6"/>
     </row>
-    <row r="204" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -24905,15 +24873,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -24922,12 +24890,12 @@
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>9</v>
@@ -24939,15 +24907,15 @@
       </c>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -24955,12 +24923,12 @@
         <v>0</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:16384" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6" t="s">
@@ -24968,26 +24936,26 @@
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>93</v>
@@ -24998,15 +24966,15 @@
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>2</v>
@@ -25015,15 +24983,15 @@
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>85</v>
@@ -25034,15 +25002,15 @@
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>2</v>
@@ -25051,15 +25019,15 @@
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>85</v>
@@ -25070,40 +25038,40 @@
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="705">
   <si>
     <t>openBrowser</t>
   </si>
@@ -2681,9 +2681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4639,7 +4639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Raftaar/assets/testcase.xlsx
+++ b/Raftaar/assets/testcase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="705">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1864,9 +1864,6 @@
     <t>Run javascript on page/element or use javascript to decide the value of flag</t>
   </si>
   <si>
-    <t>{knownDefect=PHIX-28031}</t>
-  </si>
-  <si>
     <t>Test Case to verify coverage via Automation</t>
   </si>
   <si>
@@ -1999,9 +1996,6 @@
     <t>Test.Case.014</t>
   </si>
   <si>
-    <t>working</t>
-  </si>
-  <si>
     <t>Test.Case.015</t>
   </si>
   <si>
@@ -2138,6 +2132,12 @@
   </si>
   <si>
     <t>Test.Case.040</t>
+  </si>
+  <si>
+    <t>{knownDefect=DEFECT-001}</t>
+  </si>
+  <si>
+    <t>Makes test step as optional and will not throw error in case of any failure</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2294,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,12 +2316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
@@ -2682,19 +2676,19 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="16"/>
+    <col min="4" max="4" width="68" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="6" max="6" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,1922 +2702,1848 @@
         <v>396</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>651</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="D39" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="C43" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D75" s="16"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D84" s="16"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D91" s="16"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>616</v>
+      </